--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSY\Desktop\编程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DEC70-BEC8-4A09-B18E-369C9F58594F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F2D54-E4F2-4874-B2DA-8C0F046E82CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="0" windowWidth="19010" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="190" yWindow="0" windowWidth="19010" windowHeight="10200" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="668">
   <si>
     <t>Remove Element</t>
   </si>
@@ -849,9 +849,6 @@
     <t>Invert Binary Tree</t>
   </si>
   <si>
-    <t>preorder + BFS</t>
-  </si>
-  <si>
     <t>Binary Tree Paths</t>
   </si>
   <si>
@@ -937,9 +934,6 @@
   </si>
   <si>
     <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
   </si>
   <si>
     <t>Inorder Successor in BST</t>
@@ -1120,16 +1114,6 @@
     <t>HashMap</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1. sweep line
-2. Max Heap</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
     <t>Memorization Recursion</t>
   </si>
   <si>
@@ -1158,9 +1142,6 @@
     <t>DFS + BackTracking</t>
   </si>
   <si>
-    <t>不是很懂实现</t>
-  </si>
-  <si>
     <t>Course Schedule</t>
   </si>
   <si>
@@ -1791,9 +1772,6 @@
     <t>weighted shortest path</t>
   </si>
   <si>
-    <t>Eulerian path</t>
-  </si>
-  <si>
     <t>Tarjan</t>
   </si>
   <si>
@@ -1969,9 +1947,6 @@
   </si>
   <si>
     <t>Remove Boxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 dimension </t>
   </si>
   <si>
     <t>Shortest Subarray with Sum at Least K</t>
@@ -2042,6 +2017,55 @@
   </si>
   <si>
     <t>注意溢出</t>
+  </si>
+  <si>
+    <t>Euler Path</t>
+  </si>
+  <si>
+    <t>1. sweep line
+2. TreeMap</t>
+  </si>
+  <si>
+    <t>N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Deepest Leaves Sum</t>
+  </si>
+  <si>
+    <t>Path Sum IV</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>重要,与987的区别在于314. If two nodes are in the same row and column, the order should be from left to right.987. If two nodes have the same position, then the value of the node that is reported first is the value that is smaller.</t>
+  </si>
+  <si>
+    <t>string版本，次数至少</t>
+  </si>
+  <si>
+    <t>注意剪枝</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs    </t>
+  </si>
+  <si>
+    <t>N-th Tribonacci Number    </t>
+  </si>
+  <si>
+    <t>Longest Arithmetic Subsequence of Given Difference</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock    </t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2130,6 +2154,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2412,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2537,7 +2566,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B7" s="2">
         <v>244</v>
@@ -2571,7 +2600,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B9" s="2">
         <v>277</v>
@@ -2598,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
@@ -2646,7 +2675,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B13" s="2">
         <v>299</v>
@@ -2655,7 +2684,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -2666,7 +2695,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B14" s="2">
         <v>134</v>
@@ -2683,7 +2712,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B15" s="2">
         <v>118</v>
@@ -2700,7 +2729,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B16" s="2">
         <v>119</v>
@@ -2717,7 +2746,7 @@
     </row>
     <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B17" s="2">
         <v>169</v>
@@ -2737,7 +2766,7 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B18" s="8">
         <v>229</v>
@@ -2757,7 +2786,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B19" s="2">
         <v>274</v>
@@ -2777,7 +2806,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B20" s="2">
         <v>275</v>
@@ -2797,7 +2826,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B21" s="2">
         <v>217</v>
@@ -2817,7 +2846,7 @@
     </row>
     <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B22" s="2">
         <v>219</v>
@@ -2837,7 +2866,7 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B23" s="8">
         <v>220</v>
@@ -2846,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
@@ -2857,7 +2886,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B24" s="2">
         <v>55</v>
@@ -2874,7 +2903,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B25" s="2">
         <v>45</v>
@@ -2891,7 +2920,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B26" s="2">
         <v>128</v>
@@ -2911,7 +2940,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B27" s="2">
         <v>325</v>
@@ -2931,7 +2960,7 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -2951,7 +2980,7 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B29" s="8">
         <v>295</v>
@@ -2971,7 +3000,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B30" s="2">
         <v>121</v>
@@ -2988,7 +3017,7 @@
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B31" s="8">
         <v>122</v>
@@ -3008,7 +3037,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B32" s="2">
         <v>123</v>
@@ -3025,7 +3054,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B33" s="2">
         <v>188</v>
@@ -3045,7 +3074,7 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B34" s="8">
         <v>309</v>
@@ -3062,7 +3091,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B35" s="2">
         <v>152</v>
@@ -3080,7 +3109,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B36" s="2">
         <v>53</v>
@@ -3097,7 +3126,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B37" s="2">
         <v>334</v>
@@ -3114,7 +3143,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B38" s="2">
         <v>135</v>
@@ -3134,7 +3163,7 @@
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B39" s="8">
         <v>330</v>
@@ -3154,7 +3183,7 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B40" s="8">
         <v>321</v>
@@ -3171,7 +3200,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B41" s="8">
         <v>289</v>
@@ -3314,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3385,7 +3414,7 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E52" t="s">
         <v>90</v>
@@ -3405,7 +3434,7 @@
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
@@ -3425,7 +3454,7 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
@@ -3485,7 +3514,7 @@
         <v>62</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>90</v>
@@ -3525,7 +3554,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
@@ -3545,7 +3574,7 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E60" t="s">
         <v>90</v>
@@ -3565,7 +3594,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E61" t="s">
         <v>90</v>
@@ -3576,13 +3605,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B62" s="2">
         <v>307</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D62" s="3"/>
       <c r="F62">
@@ -3591,7 +3620,7 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B63" s="8">
         <v>315</v>
@@ -3606,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -3616,11 +3645,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D255063B-BE9D-4B24-A95D-FEEF9F0D71FC}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3631,7 +3660,7 @@
     <col min="4" max="4" width="18.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="4"/>
     <col min="6" max="6" width="8.7265625" style="10"/>
-    <col min="7" max="7" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.1796875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
@@ -3660,14 +3689,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B2" s="4">
         <v>94</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="10">
@@ -3677,7 +3705,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B3" s="4">
         <v>102</v>
@@ -3691,14 +3719,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B4" s="4">
-        <v>144</v>
-      </c>
-      <c r="C4"/>
+        <v>107</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>573</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="10">
@@ -3708,14 +3738,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B5" s="4">
-        <v>145</v>
-      </c>
-      <c r="C5"/>
+        <v>144</v>
+      </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="10">
@@ -3725,14 +3754,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B6" s="4">
-        <v>429</v>
-      </c>
-      <c r="C6"/>
+        <v>145</v>
+      </c>
       <c r="D6" t="s">
-        <v>580</v>
+        <v>287</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="10">
@@ -3742,14 +3770,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>589</v>
-      </c>
-      <c r="C7"/>
+        <v>429</v>
+      </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>573</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="10">
@@ -3759,240 +3786,241 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B8" s="4">
-        <v>590</v>
-      </c>
-      <c r="C8"/>
+        <v>589</v>
+      </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B9" s="4">
-        <v>987</v>
-      </c>
-      <c r="C9"/>
+        <v>590</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>654</v>
+      </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>506</v>
+      <c r="A10" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="B10" s="4">
-        <v>1302</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>314</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B11" s="4">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11"/>
+        <v>987</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
       <c r="E11"/>
       <c r="F11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B12" s="4">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>273</v>
+        <v>1302</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B13" s="4">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B14" s="4">
-        <v>965</v>
-      </c>
-      <c r="C14" t="s">
-        <v>581</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B15" s="4">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" t="s">
-        <v>580</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B16" s="4">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" t="s">
-        <v>580</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B17" s="4">
         <v>872</v>
       </c>
-      <c r="C17" t="s">
-        <v>582</v>
+      <c r="C17" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B18" s="4">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>267</v>
+      <c r="C18" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B19" s="4">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>268</v>
+      <c r="C19" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B20" s="4">
         <v>437</v>
       </c>
-      <c r="C20" t="s">
-        <v>584</v>
+      <c r="C20" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B21" s="4">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>269</v>
+        <v>666</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>657</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -4003,596 +4031,598 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B22" s="4">
-        <v>257</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" t="s">
-        <v>583</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="B23" s="4">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23"/>
+        <v>257</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s">
+        <v>576</v>
+      </c>
       <c r="E23"/>
       <c r="F23" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="B24" s="4">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24"/>
+        <v>508</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" t="s">
+        <v>352</v>
+      </c>
       <c r="E24"/>
       <c r="F24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B25" s="4">
-        <v>572</v>
-      </c>
-      <c r="C25" t="s">
-        <v>587</v>
+        <v>100</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B26" s="4">
-        <v>814</v>
-      </c>
-      <c r="C26" t="s">
-        <v>589</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>590</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B27" s="4">
-        <v>669</v>
-      </c>
-      <c r="C27" t="s">
-        <v>591</v>
+        <v>572</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>592</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B28" s="4">
-        <v>1325</v>
-      </c>
-      <c r="C28" t="s">
-        <v>593</v>
+        <v>814</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B29" s="4">
-        <v>235</v>
-      </c>
-      <c r="C29" t="s">
-        <v>286</v>
+        <v>669</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29"/>
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B30" s="4">
-        <v>236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" t="s">
-        <v>583</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D30"/>
       <c r="E30"/>
       <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30"/>
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B31" s="4">
-        <v>297</v>
-      </c>
-      <c r="C31" t="s">
-        <v>596</v>
-      </c>
-      <c r="D31"/>
+        <v>235</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E31"/>
       <c r="F31" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>595</v>
-      </c>
-      <c r="B32" s="4">
-        <v>449</v>
-      </c>
-      <c r="C32" t="s">
-        <v>597</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>598</v>
-      </c>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B32" s="8">
+        <v>236</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="14">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="B33" s="4">
-        <v>508</v>
-      </c>
-      <c r="C33" t="s">
-        <v>599</v>
-      </c>
-      <c r="D33" t="s">
-        <v>354</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D33"/>
       <c r="E33"/>
       <c r="F33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B34" s="4">
-        <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>274</v>
+        <v>449</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34"/>
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B35" s="4">
-        <v>543</v>
-      </c>
-      <c r="C35" t="s">
-        <v>601</v>
+        <v>124</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B36" s="4">
-        <v>687</v>
-      </c>
-      <c r="C36" t="s">
-        <v>602</v>
+        <v>543</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B37" s="4">
-        <v>968</v>
-      </c>
-      <c r="C37" t="s">
-        <v>604</v>
+        <v>687</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>603</v>
-      </c>
-      <c r="B38" s="4">
-        <v>337</v>
-      </c>
-      <c r="C38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38"/>
+    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B38" s="8">
+        <v>968</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="14">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B39" s="4">
-        <v>979</v>
-      </c>
-      <c r="C39" t="s">
-        <v>605</v>
+        <v>337</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>596</v>
       </c>
       <c r="B40" s="4">
-        <v>98</v>
-      </c>
-      <c r="C40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" t="s">
-        <v>293</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D40"/>
       <c r="E40"/>
       <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>606</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G40"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="4">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B41" s="4">
-        <v>530</v>
-      </c>
-      <c r="C41" t="s">
-        <v>607</v>
-      </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E41"/>
       <c r="F41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42" s="4">
-        <v>230</v>
-      </c>
-      <c r="C42" t="s">
-        <v>294</v>
+        <v>530</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="D42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42"/>
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="4">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>299</v>
+        <v>230</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E43"/>
       <c r="F43" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>283</v>
-      </c>
-      <c r="B44" s="4">
-        <v>501</v>
-      </c>
-      <c r="C44" t="s">
-        <v>608</v>
-      </c>
-      <c r="D44" t="s">
-        <v>293</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44"/>
+    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="8">
+        <v>99</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="14">
+        <v>2</v>
+      </c>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B45" s="4">
-        <v>700</v>
-      </c>
-      <c r="C45" t="s">
-        <v>609</v>
+        <v>501</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="D45" t="s">
-        <v>610</v>
+        <v>292</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46" s="4">
-        <v>701</v>
-      </c>
-      <c r="C46" t="s">
-        <v>611</v>
+        <v>700</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B47" s="4">
-        <v>450</v>
-      </c>
-      <c r="C47" t="s">
-        <v>612</v>
+        <v>701</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="D47" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="10">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="4">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>289</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48" s="10">
-        <v>1</v>
-      </c>
-      <c r="G48"/>
+        <v>2</v>
+      </c>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="2">
+        <v>450</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="15">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="4">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F49" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B50" s="4">
-        <v>236</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="2">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51" s="4">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F51" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B52" s="4">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" s="4">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F53" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B54" s="4">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>278</v>
+        <v>458</v>
       </c>
       <c r="F54" s="10">
         <v>1</v>
@@ -4600,53 +4630,47 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B55" s="4">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B56" s="4">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F56" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B57" s="4">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>464</v>
+        <v>274</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -4654,55 +4678,58 @@
         <v>261</v>
       </c>
       <c r="B58" s="4">
-        <v>226</v>
+        <v>366</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F58" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B59" s="4">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F59" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B60" s="4">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>267</v>
+        <v>280</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="F60" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>261</v>
+        <v>658</v>
       </c>
       <c r="B61" s="4">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>268</v>
+        <v>298</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F61" s="10">
         <v>1</v>
@@ -4710,13 +4737,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>261</v>
+        <v>658</v>
       </c>
       <c r="B62" s="4">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
+        <v>299</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F62" s="10">
         <v>1</v>
@@ -4724,13 +4754,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="B63" s="4">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>270</v>
+        <v>300</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F63" s="10">
         <v>1</v>
@@ -4738,426 +4771,215 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="B64" s="4">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>271</v>
+        <v>301</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="B65" s="4">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>272</v>
+        <v>302</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66" s="4">
-        <v>110</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F66" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B66" s="8">
+        <v>105</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="B67" s="4">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>274</v>
+        <v>304</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F67" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" s="4">
-        <v>250</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F68" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B69" s="4">
-        <v>366</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F69" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B70" s="4">
-        <v>337</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F70" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B71" s="4">
-        <v>107</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F71" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B72" s="4">
-        <v>103</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B68" s="8">
+        <v>116</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" s="14">
+        <v>2</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="8">
+        <v>117</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" s="14">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B70" s="8">
+        <v>96</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" s="14">
+        <v>2</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" s="8">
+        <v>95</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B72" s="8">
+        <v>331</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="B73" s="4">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="F73" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>465</v>
+        <v>373</v>
       </c>
       <c r="B74" s="4">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="F74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>465</v>
+        <v>373</v>
       </c>
       <c r="B75" s="4">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>89</v>
+        <v>576</v>
       </c>
       <c r="F75" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B76" s="4">
-        <v>255</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F76" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B77" s="4">
-        <v>333</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B78" s="4">
-        <v>222</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F78" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B79" s="4">
-        <v>105</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B80" s="4">
-        <v>106</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B81" s="4">
-        <v>116</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F81" s="10">
-        <v>1</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B82" s="4">
-        <v>117</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F82" s="10">
-        <v>1</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B83" s="4">
-        <v>314</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B84" s="4">
-        <v>96</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F84" s="10">
-        <v>1</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B85" s="4">
-        <v>95</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B86" s="4">
-        <v>331</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B87" s="4">
-        <v>208</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F87" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B88" s="4">
-        <v>211</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F88" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B89" s="4">
-        <v>212</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5169,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6F1640-E696-4485-A999-112D5A4284BE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5210,7 +5032,7 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B2" s="4">
         <v>17</v>
@@ -5224,7 +5046,7 @@
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B3" s="4">
         <v>39</v>
@@ -5238,7 +5060,7 @@
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B4" s="4">
         <v>40</v>
@@ -5252,7 +5074,7 @@
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B5" s="4">
         <v>77</v>
@@ -5261,12 +5083,12 @@
         <v>230</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B6" s="4">
         <v>78</v>
@@ -5275,12 +5097,12 @@
         <v>228</v>
       </c>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B7" s="4">
         <v>90</v>
@@ -5289,12 +5111,12 @@
         <v>229</v>
       </c>
       <c r="F7" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B8" s="4">
         <v>216</v>
@@ -5308,7 +5130,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B9" s="4">
         <v>377</v>
@@ -5317,7 +5139,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -5325,7 +5147,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B10" s="4">
         <v>254</v>
@@ -5339,7 +5161,7 @@
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B11" s="4">
         <v>46</v>
@@ -5348,12 +5170,12 @@
         <v>236</v>
       </c>
       <c r="F11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B12" s="4">
         <v>47</v>
@@ -5362,12 +5184,12 @@
         <v>237</v>
       </c>
       <c r="F12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B13" s="4">
         <v>31</v>
@@ -5381,7 +5203,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B14" s="4">
         <v>60</v>
@@ -5398,13 +5220,13 @@
     </row>
     <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B15" s="4">
         <v>784</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -5412,13 +5234,13 @@
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B16" s="4">
         <v>943</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -5426,13 +5248,13 @@
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B17" s="4">
         <v>996</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -5525,7 +5347,7 @@
         <v>246</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
@@ -5573,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5584,13 +5406,13 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5629,7 +5451,7 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -5643,10 +5465,10 @@
         <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -5695,51 +5517,55 @@
       </c>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>278</v>
+      <c r="A35" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="B35" s="4">
-        <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" t="s">
-        <v>557</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="4">
-        <v>752</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>559</v>
+        <v>258</v>
+      </c>
+      <c r="D37" t="s">
+        <v>552</v>
       </c>
       <c r="F37" s="10">
         <v>1</v>
@@ -5747,13 +5573,13 @@
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="4">
-        <v>818</v>
+        <v>752</v>
       </c>
       <c r="C38" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -5761,13 +5587,13 @@
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" s="4">
-        <v>542</v>
+        <v>818</v>
       </c>
       <c r="C39" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F39" s="10">
         <v>1</v>
@@ -5775,13 +5601,13 @@
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" s="4">
-        <v>675</v>
+        <v>542</v>
       </c>
       <c r="C40" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F40" s="10">
         <v>1</v>
@@ -5789,16 +5615,13 @@
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" s="4">
-        <v>934</v>
+        <v>675</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
-      </c>
-      <c r="D41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -5806,101 +5629,107 @@
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B42" s="4">
-        <v>433</v>
+        <v>934</v>
+      </c>
+      <c r="C42" t="s">
+        <v>557</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="4">
-        <v>815</v>
+        <v>433</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="4">
-        <v>863</v>
+        <v>815</v>
       </c>
       <c r="D44" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" s="4">
-        <v>1129</v>
+        <v>863</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46" s="4">
-        <v>1263</v>
+        <v>1129</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B47" s="4">
-        <v>847</v>
+        <v>1263</v>
+      </c>
+      <c r="D47" t="s">
+        <v>558</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B48" s="4">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="4">
+        <v>864</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="4">
         <v>1298</v>
       </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" s="4">
-        <v>339</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="F50" s="10">
         <v>1</v>
       </c>
@@ -5910,13 +5739,10 @@
         <v>259</v>
       </c>
       <c r="B51" s="4">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>360</v>
+        <v>253</v>
       </c>
       <c r="F51" s="10">
         <v>1</v>
@@ -5927,13 +5753,13 @@
         <v>259</v>
       </c>
       <c r="B52" s="4">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F52" s="10">
         <v>1</v>
@@ -5944,10 +5770,13 @@
         <v>259</v>
       </c>
       <c r="B53" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F53" s="10">
         <v>1</v>
@@ -5958,13 +5787,10 @@
         <v>259</v>
       </c>
       <c r="B54" s="4">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>361</v>
+        <v>258</v>
       </c>
       <c r="F54" s="10">
         <v>1</v>
@@ -5975,10 +5801,13 @@
         <v>259</v>
       </c>
       <c r="B55" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="F55" s="10">
         <v>0</v>
@@ -5986,13 +5815,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>465</v>
+        <v>259</v>
       </c>
       <c r="B56" s="4">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="F56" s="10">
         <v>1</v>
@@ -6000,13 +5829,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B57" s="4">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F57" s="10">
         <v>1</v>
@@ -6014,33 +5843,30 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B58" s="4">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B59" s="4">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>89</v>
+        <v>368</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
@@ -6048,13 +5874,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B60" s="4">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>89</v>
@@ -6065,16 +5891,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B61" s="4">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>89</v>
@@ -6083,18 +5906,21 @@
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B62" s="4">
-        <v>223</v>
+        <v>391</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>89</v>
@@ -6103,21 +5929,21 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B63" s="4">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>201</v>
+        <v>372</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F63" s="10">
         <v>1</v>
@@ -6125,13 +5951,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B64" s="4">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>201</v>
@@ -6142,16 +5968,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B65" s="4">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="F65" s="10">
         <v>1</v>
@@ -6159,39 +5985,46 @@
     </row>
     <row r="66" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B66" s="4">
-        <v>802</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B67" s="4">
-        <v>261</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>475</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
       <c r="F67" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B68" s="4">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
@@ -6199,47 +6032,47 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B69" s="4">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F69" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B70" s="4">
+        <v>305</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="4">
         <v>399</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F70" s="10">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B71" s="4">
-        <v>737</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>474</v>
+        <v>366</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="F71" s="10">
         <v>0</v>
@@ -6247,13 +6080,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B72" s="4">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F72" s="10">
         <v>1</v>
@@ -6261,13 +6094,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B73" s="4">
-        <v>547</v>
+        <v>684</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F73" s="10">
         <v>2</v>
@@ -6275,44 +6108,49 @@
     </row>
     <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B74" s="4">
+        <v>547</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B74" s="4">
-        <v>839</v>
-      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B75" s="4">
-        <v>952</v>
+        <v>839</v>
       </c>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B76" s="4">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F76" s="10">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B77" s="4">
-        <v>990</v>
+        <v>959</v>
       </c>
       <c r="F77" s="10">
         <v>1</v>
@@ -6320,19 +6158,19 @@
     </row>
     <row r="78" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B78" s="4">
-        <v>721</v>
+        <v>990</v>
       </c>
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B79" s="4">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F79" s="10">
         <v>0</v>
@@ -6340,13 +6178,10 @@
     </row>
     <row r="80" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B80" s="4">
-        <v>684</v>
-      </c>
-      <c r="D80" t="s">
-        <v>573</v>
+        <v>737</v>
       </c>
       <c r="F80" s="10">
         <v>1</v>
@@ -6354,45 +6189,42 @@
     </row>
     <row r="81" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B81" s="4">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D81" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F81" s="10">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B82" s="4">
+        <v>685</v>
+      </c>
+      <c r="D82" t="s">
+        <v>567</v>
+      </c>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" s="4">
         <v>1319</v>
       </c>
-      <c r="D82" t="s">
-        <v>573</v>
-      </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>565</v>
-      </c>
-      <c r="B83" s="4">
-        <v>698</v>
-      </c>
-      <c r="C83" t="s">
-        <v>566</v>
-      </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>567</v>
       </c>
       <c r="F83" s="10">
         <v>1</v>
@@ -6400,16 +6232,16 @@
     </row>
     <row r="84" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B84" s="4">
-        <v>93</v>
+        <v>698</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>560</v>
       </c>
       <c r="D84" t="s">
-        <v>567</v>
+        <v>201</v>
       </c>
       <c r="F84" s="10">
         <v>1</v>
@@ -6417,16 +6249,16 @@
     </row>
     <row r="85" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B85" s="4">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="D85" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F85" s="10">
         <v>1</v>
@@ -6434,33 +6266,33 @@
     </row>
     <row r="86" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B86" s="4">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="D86" t="s">
+        <v>561</v>
       </c>
       <c r="F86" s="10">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B87" s="4">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F87" s="10">
         <v>0</v>
@@ -6468,111 +6300,114 @@
     </row>
     <row r="88" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B88" s="4">
+        <v>282</v>
+      </c>
+      <c r="C88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
+      </c>
+      <c r="F88" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>559</v>
+      </c>
+      <c r="B89" s="4">
         <v>842</v>
       </c>
-      <c r="C88" t="s">
-        <v>569</v>
-      </c>
-      <c r="D88" t="s">
-        <v>567</v>
-      </c>
-      <c r="F88" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="4">
-        <v>133</v>
+      <c r="C89" t="s">
+        <v>563</v>
       </c>
       <c r="D89" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="4">
+        <v>133</v>
+      </c>
+      <c r="D90" t="s">
+        <v>564</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="4">
         <v>138</v>
       </c>
-      <c r="D90" t="s">
-        <v>570</v>
-      </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>571</v>
-      </c>
-      <c r="B91" s="4">
-        <v>200</v>
+      <c r="D91" t="s">
+        <v>564</v>
       </c>
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B92" s="4">
-        <v>547</v>
+        <v>200</v>
       </c>
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B93" s="4">
-        <v>695</v>
+        <v>547</v>
       </c>
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B94" s="4">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="F94" s="10"/>
     </row>
     <row r="95" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B95" s="4">
-        <v>827</v>
+        <v>733</v>
       </c>
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B96" s="4">
-        <v>1162</v>
+        <v>827</v>
       </c>
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B97" s="4">
-        <v>841</v>
-      </c>
-      <c r="D97" t="s">
-        <v>201</v>
+        <v>1162</v>
       </c>
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B98" s="4">
-        <v>1202</v>
+        <v>841</v>
       </c>
       <c r="D98" t="s">
         <v>201</v>
@@ -6581,97 +6416,100 @@
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B99" s="4">
-        <v>785</v>
+        <v>1202</v>
+      </c>
+      <c r="D99" t="s">
+        <v>201</v>
       </c>
       <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B100" s="4">
-        <v>886</v>
+        <v>785</v>
       </c>
       <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B101" s="4">
-        <v>1042</v>
+        <v>886</v>
       </c>
       <c r="F101" s="10"/>
     </row>
     <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B102" s="4">
-        <v>997</v>
+        <v>1042</v>
       </c>
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B103" s="4">
-        <v>743</v>
+        <v>997</v>
       </c>
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B104" s="4">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B105" s="4">
-        <v>882</v>
+        <v>787</v>
       </c>
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B106" s="4">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B107" s="4">
-        <v>1334</v>
+        <v>924</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B108" s="4">
-        <v>332</v>
+        <v>1334</v>
       </c>
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B109" s="4">
         <v>1192</v>
@@ -6680,7 +6518,7 @@
     </row>
     <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B110" s="4">
         <v>943</v>
@@ -6689,7 +6527,7 @@
     </row>
     <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B111" s="4">
         <v>980</v>
@@ -6698,16 +6536,18 @@
     </row>
     <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B112" s="4">
         <v>996</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="2:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="4"/>
-      <c r="F113" s="10"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6758,13 +6598,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B2" s="4">
         <v>384</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -6772,13 +6612,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B3" s="4">
         <v>398</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -6786,13 +6626,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B4" s="4">
         <v>382</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -6800,13 +6640,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B5" s="4">
         <v>380</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -6814,13 +6654,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B6" s="4">
         <v>381</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -6834,13 +6674,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -6851,7 +6691,7 @@
         <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -6865,7 +6705,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -6879,13 +6719,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -6896,13 +6736,13 @@
         <v>258</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -6913,7 +6753,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -6927,7 +6767,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -6941,7 +6781,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -6955,10 +6795,10 @@
         <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -6972,7 +6812,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
@@ -6989,7 +6829,7 @@
         <v>367</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -7006,16 +6846,16 @@
         <v>365</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -7026,7 +6866,7 @@
         <v>204</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -7034,13 +6874,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -7048,13 +6888,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B21" s="4">
         <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -7062,13 +6902,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B22" s="4">
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -7076,13 +6916,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B23" s="4">
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>89</v>
@@ -7093,13 +6933,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B24" s="4">
         <v>259</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>89</v>
@@ -7110,13 +6950,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B25" s="4">
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -7124,16 +6964,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B26" s="4">
         <v>231</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>89</v>
@@ -7144,13 +6984,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B27" s="4">
         <v>326</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>89</v>
@@ -7161,13 +7001,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B28" s="4">
         <v>342</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>89</v>
@@ -7178,13 +7018,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B29" s="4">
         <v>372</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>89</v>
@@ -7198,13 +7038,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B30" s="4">
         <v>233</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>89</v>
@@ -7218,13 +7058,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B31" s="4">
         <v>319</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>89</v>
@@ -7235,13 +7075,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B32" s="4">
         <v>292</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>89</v>
@@ -7252,13 +7092,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B33" s="4">
         <v>202</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>89</v>
@@ -7269,13 +7109,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B34" s="4">
         <v>400</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>89</v>
@@ -7286,13 +7126,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B35" s="4">
         <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>89</v>
@@ -7303,13 +7143,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B36" s="4">
         <v>264</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>89</v>
@@ -7320,13 +7160,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B37" s="4">
         <v>306</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>89</v>
@@ -7337,13 +7177,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B38" s="4">
         <v>172</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>89</v>
@@ -7354,16 +7194,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B39" s="4">
         <v>343</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>89</v>
@@ -7374,13 +7214,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B40" s="4">
         <v>396</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>89</v>
@@ -7389,18 +7229,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B41" s="4">
         <v>390</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>89</v>
@@ -7411,13 +7251,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B42" s="4">
         <v>386</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>201</v>
@@ -7429,18 +7269,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B43" s="4">
         <v>357</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>89</v>
@@ -7451,13 +7291,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B44" s="4">
         <v>360</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>89</v>
@@ -7468,13 +7308,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B45" s="4">
         <v>397</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>89</v>
@@ -7485,13 +7325,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B46" s="4">
         <v>368</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>89</v>
@@ -7502,16 +7342,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B47" s="4">
         <v>389</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -7519,16 +7359,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B48" s="4">
         <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -7536,16 +7376,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B49" s="4">
         <v>318</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -7553,13 +7393,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B50" s="4">
         <v>393</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>89</v>
@@ -7570,13 +7410,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B51" s="4">
         <v>201</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>89</v>
@@ -7587,16 +7427,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B52" s="4">
         <v>371</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>89</v>
@@ -7607,16 +7447,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B53" s="4">
         <v>338</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>89</v>
@@ -7627,16 +7467,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B54" s="4">
         <v>89</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>89</v>
@@ -7650,16 +7490,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B55" s="4">
         <v>268</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>89</v>
@@ -7670,13 +7510,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B56" s="4">
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>89</v>
@@ -7687,16 +7527,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B57" s="4">
         <v>190</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>89</v>
@@ -7707,13 +7547,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B58" s="4">
         <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>89</v>
@@ -7724,13 +7564,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B59" s="4">
         <v>260</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>89</v>
@@ -7788,7 +7628,7 @@
         <v>359</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -7799,7 +7639,7 @@
         <v>346</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>167</v>
@@ -7813,7 +7653,7 @@
         <v>362</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -7824,7 +7664,7 @@
         <v>281</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -7835,7 +7675,7 @@
         <v>284</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -7846,7 +7686,7 @@
         <v>251</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -7857,7 +7697,7 @@
         <v>288</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -7868,10 +7708,10 @@
         <v>170</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -7882,7 +7722,7 @@
         <v>348</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -7893,7 +7733,7 @@
         <v>379</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -7904,7 +7744,7 @@
         <v>353</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -7915,7 +7755,7 @@
         <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -7926,7 +7766,7 @@
         <v>355</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -7937,7 +7777,7 @@
         <v>303</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -7948,7 +7788,7 @@
         <v>304</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -7959,10 +7799,10 @@
         <v>307</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -7973,10 +7813,10 @@
         <v>308</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -8032,7 +7872,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B2" s="9">
         <v>35</v>
@@ -8046,7 +7886,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B3" s="9">
         <v>34</v>
@@ -8060,7 +7900,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B4" s="9">
         <v>704</v>
@@ -8074,13 +7914,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B5" s="9">
         <v>981</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
@@ -8088,13 +7928,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B6" s="9">
         <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F6" s="9">
         <v>2</v>
@@ -8102,7 +7942,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B7" s="9">
         <v>374</v>
@@ -8119,7 +7959,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B8" s="9">
         <v>278</v>
@@ -8136,7 +7976,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B9" s="9">
         <v>33</v>
@@ -8148,12 +7988,12 @@
         <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B10" s="9">
         <v>81</v>
@@ -8165,12 +8005,12 @@
         <v>2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B11" s="9">
         <v>153</v>
@@ -8184,7 +8024,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B12" s="9">
         <v>154</v>
@@ -8198,7 +8038,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B13" s="9">
         <v>162</v>
@@ -8212,13 +8052,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B14" s="9">
         <v>852</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -8226,41 +8066,41 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B15" s="9">
         <v>875</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B16" s="9">
         <v>1011</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B17" s="9">
         <v>4</v>
@@ -8274,92 +8114,92 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B18" s="9">
         <v>74</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F18" s="9">
         <v>2</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B19" s="9">
         <v>378</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F19" s="9">
         <v>2</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B20" s="9">
         <v>668</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F20" s="9">
         <v>2</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B21" s="9">
         <v>719</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F21" s="9">
         <v>2</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B22" s="9">
         <v>786</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B23" s="9">
         <v>300</v>
@@ -8379,7 +8219,7 @@
     </row>
     <row r="24" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B24" s="9">
         <v>354</v>
@@ -8454,7 +8294,7 @@
         <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -8471,7 +8311,7 @@
         <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -8522,7 +8362,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -8553,7 +8393,7 @@
         <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -8634,7 +8474,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B14" s="4">
         <v>205</v>
@@ -8651,7 +8491,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B15" s="4">
         <v>290</v>
@@ -8668,7 +8508,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B16" s="4">
         <v>242</v>
@@ -8685,7 +8525,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B17" s="4">
         <v>49</v>
@@ -8702,7 +8542,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B18" s="4">
         <v>249</v>
@@ -8719,7 +8559,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B19" s="4">
         <v>387</v>
@@ -8736,7 +8576,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B20" s="4">
         <v>383</v>
@@ -8753,7 +8593,7 @@
     </row>
     <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B21" s="4">
         <v>316</v>
@@ -8815,7 +8655,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B25" s="4">
         <v>87</v>
@@ -8832,7 +8672,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B26" s="4">
         <v>179</v>
@@ -8849,7 +8689,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B27" s="4">
         <v>271</v>
@@ -8863,7 +8703,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B28" s="4">
         <v>13</v>
@@ -8872,7 +8712,7 @@
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -8880,7 +8720,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B29" s="4">
         <v>12</v>
@@ -8889,7 +8729,7 @@
         <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -8897,7 +8737,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B30" s="4">
         <v>273</v>
@@ -8906,7 +8746,7 @@
         <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -8914,7 +8754,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B31" s="4">
         <v>246</v>
@@ -8923,7 +8763,7 @@
         <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -8931,7 +8771,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B32" s="4">
         <v>247</v>
@@ -8940,7 +8780,7 @@
         <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -8948,7 +8788,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B33" s="4">
         <v>248</v>
@@ -8957,7 +8797,7 @@
         <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
         <v>89</v>
@@ -9135,7 +8975,7 @@
         <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -9259,7 +9099,7 @@
         <v>186</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F52" s="7">
         <v>2</v>
@@ -9313,7 +9153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9350,7 +9190,7 @@
         <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9364,10 +9204,10 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -9381,10 +9221,10 @@
         <v>29</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -9398,10 +9238,10 @@
         <v>174</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9412,10 +9252,10 @@
         <v>917</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -9426,10 +9266,10 @@
         <v>881</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -9440,10 +9280,10 @@
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -9454,10 +9294,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -9468,80 +9308,80 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B10" s="4">
         <v>455</v>
       </c>
       <c r="C10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B11" s="4">
         <v>925</v>
       </c>
       <c r="C11" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B12" s="4">
         <v>986</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B13" s="4">
         <v>977</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B14" s="4">
         <v>209</v>
@@ -9556,67 +9396,67 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
+        <v>631</v>
+      </c>
+      <c r="H14" t="s">
+        <v>514</v>
+      </c>
+      <c r="I14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="8">
+        <v>862</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="8">
+        <v>930</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="H14" t="s">
-        <v>520</v>
-      </c>
-      <c r="I14" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B15" s="4">
-        <v>862</v>
-      </c>
-      <c r="C15" t="s">
-        <v>638</v>
-      </c>
-      <c r="D15" t="s">
-        <v>524</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>640</v>
-      </c>
-      <c r="H15" t="s">
-        <v>520</v>
-      </c>
-      <c r="I15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>519</v>
-      </c>
-      <c r="B16" s="4">
-        <v>930</v>
-      </c>
-      <c r="C16" t="s">
-        <v>642</v>
-      </c>
-      <c r="D16" t="s">
-        <v>649</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>520</v>
-      </c>
-      <c r="I16" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -9625,81 +9465,81 @@
         <v>169</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B18" s="8">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D18" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>520</v>
+      <c r="C18" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B19" s="4">
-        <v>159</v>
+        <v>904</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>633</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I19" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B20" s="4">
-        <v>904</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>641</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I20" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B21" s="4">
         <v>340</v>
@@ -9708,61 +9548,64 @@
         <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I21" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="4">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22" s="8">
         <v>992</v>
       </c>
-      <c r="C22" t="s">
-        <v>523</v>
-      </c>
-      <c r="D22" t="s">
-        <v>354</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>520</v>
-      </c>
-      <c r="I22" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>519</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="C22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" s="8">
         <v>395</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>520</v>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B24" s="4">
         <v>239</v>
@@ -9771,35 +9614,35 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B25" s="4">
         <v>480</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B26" s="8">
         <v>30</v>
@@ -9811,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -9863,7 +9706,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B2" s="4">
         <v>206</v>
@@ -9877,7 +9720,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B3" s="4">
         <v>141</v>
@@ -9894,7 +9737,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B4" s="4">
         <v>328</v>
@@ -9908,7 +9751,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B5" s="4">
         <v>92</v>
@@ -9922,7 +9765,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B6" s="4">
         <v>237</v>
@@ -9936,7 +9779,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B7" s="4">
         <v>19</v>
@@ -9950,7 +9793,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B8" s="4">
         <v>83</v>
@@ -9964,7 +9807,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B9" s="4">
         <v>82</v>
@@ -9978,7 +9821,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B10" s="4">
         <v>203</v>
@@ -9992,7 +9835,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B11" s="4">
         <v>369</v>
@@ -10006,7 +9849,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -10020,7 +9863,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B13" s="4">
         <v>160</v>
@@ -10037,7 +9880,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B14" s="4">
         <v>21</v>
@@ -10054,13 +9897,13 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B15" s="4">
         <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -10068,7 +9911,7 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B16" s="8">
         <v>142</v>
@@ -10085,7 +9928,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B17" s="4">
         <v>24</v>
@@ -10099,7 +9942,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B18" s="4">
         <v>234</v>
@@ -10116,7 +9959,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B19" s="4">
         <v>143</v>
@@ -10125,7 +9968,7 @@
         <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -10133,7 +9976,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B20" s="4">
         <v>25</v>
@@ -10147,7 +9990,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B21" s="4">
         <v>61</v>
@@ -10161,7 +10004,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
@@ -10175,7 +10018,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B23" s="4">
         <v>23</v>
@@ -10184,7 +10027,7 @@
         <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -10192,7 +10035,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B24" s="4">
         <v>148</v>
@@ -10206,7 +10049,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B25" s="4">
         <v>147</v>
@@ -10220,7 +10063,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B26" s="4">
         <v>86</v>
@@ -10234,13 +10077,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B27" s="4">
         <v>707</v>
       </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -10256,10 +10099,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7C4B1F-F3AF-4A45-B191-9A6BF3C2BBD0}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10296,173 +10139,176 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B2" s="4">
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B3" s="4">
         <v>232</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="8">
         <v>225</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
+      <c r="C4" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" s="4">
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B6" s="4">
         <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" s="4">
         <v>388</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="8">
+        <v>394</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="8">
+        <v>224</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B8" s="4">
-        <v>394</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="8">
+        <v>227</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" s="4">
-        <v>224</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="8">
+        <v>385</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" s="4">
-        <v>227</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="8">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="4">
-        <v>385</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="4">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
+      <c r="D12" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B13" s="4">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -10470,64 +10316,61 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" s="4">
-        <v>692</v>
+        <v>215</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B15" s="4">
-        <v>347</v>
+        <v>692</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="4">
+        <v>347</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B16" s="4">
-        <v>313</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>89</v>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" s="4">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>89</v>
@@ -10536,52 +10379,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B18" s="4">
+        <v>373</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="4">
         <v>218</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="4">
-        <v>332</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" s="4">
-        <v>341</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10594,7 +10423,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10634,7 +10463,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -10645,7 +10474,10 @@
         <v>68</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -10656,52 +10488,52 @@
         <v>69</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B5">
         <v>912</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B6">
         <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B7">
         <v>493</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10713,20 +10545,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E8CCDE-0517-416C-B5C3-056AD70EEDF4}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -10754,7 +10587,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B2" s="4">
         <v>70</v>
@@ -10763,62 +10596,71 @@
         <v>204</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B3" s="4">
         <v>746</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B4" s="4">
         <v>1137</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>663</v>
+      </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B5" s="4">
         <v>303</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B6" s="4">
         <v>1218</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>664</v>
+      </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B7" s="4">
         <v>53</v>
@@ -10827,23 +10669,26 @@
         <v>51</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B8" s="4">
         <v>121</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B9" s="4">
         <v>62</v>
@@ -10852,88 +10697,88 @@
         <v>205</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="B10" s="4">
-        <v>375</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B11" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B12" s="4">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B13" s="4">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B14" s="4">
-        <v>174</v>
+        <v>931</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>218</v>
+        <v>667</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B15" s="4">
-        <v>931</v>
+        <v>1210</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -10941,10 +10786,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B16" s="4">
-        <v>1210</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -10952,13 +10800,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B17" s="4">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -10966,13 +10814,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B18" s="4">
-        <v>221</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -10980,10 +10825,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B19" s="4">
-        <v>304</v>
+        <v>256</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -10991,13 +10839,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B20" s="4">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -11005,13 +10853,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B21" s="4">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -11019,13 +10867,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B22" s="4">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -11033,13 +10881,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B23" s="4">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -11047,41 +10895,41 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B24" s="4">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B25" s="4">
-        <v>363</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>248</v>
+        <v>1277</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B26" s="4">
-        <v>1277</v>
+        <v>198</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -11089,13 +10937,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B27" s="4">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -11103,13 +10951,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B28" s="4">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -11117,13 +10965,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B29" s="4">
-        <v>276</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -11131,10 +10976,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B30" s="4">
-        <v>309</v>
+        <v>740</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -11142,10 +10987,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B31" s="4">
-        <v>740</v>
+        <v>790</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -11153,10 +10998,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B32" s="4">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -11164,60 +11009,63 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B33" s="4">
-        <v>801</v>
+        <v>1220</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B34" s="4">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B35" s="4">
-        <v>1230</v>
+        <v>1262</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B36" s="4">
-        <v>1262</v>
+        <v>1269</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B37" s="4">
-        <v>1269</v>
+        <v>1223</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -11225,13 +11073,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="B38" s="4">
-        <v>1223</v>
+        <v>279</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>622</v>
+        <v>208</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -11239,13 +11087,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="B39" s="4">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -11253,35 +11101,35 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="B40" s="4">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B41" s="4">
-        <v>91</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B41" s="8">
+        <v>375</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B42" s="4">
         <v>140</v>
@@ -11292,7 +11140,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B43" s="4">
         <v>818</v>
@@ -11303,7 +11151,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B44" s="4">
         <v>300</v>
@@ -11317,7 +11165,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B45" s="4">
         <v>673</v>
@@ -11328,7 +11176,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B46" s="4">
         <v>1048</v>
@@ -11339,13 +11187,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B47" s="4">
         <v>96</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -11353,13 +11201,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B48" s="4">
         <v>1105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -11367,7 +11215,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B49" s="4">
         <v>131</v>
@@ -11381,7 +11229,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B50" s="4">
         <v>89</v>
@@ -11392,7 +11240,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B51" s="4">
         <v>1043</v>
@@ -11403,7 +11251,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B52" s="4">
         <v>72</v>
@@ -11417,7 +11265,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B53" s="4">
         <v>10</v>
@@ -11431,7 +11279,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B54" s="4">
         <v>44</v>
@@ -11445,7 +11293,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B55" s="4">
         <v>97</v>
@@ -11459,7 +11307,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B56" s="4">
         <v>115</v>
@@ -11470,7 +11318,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B57" s="4">
         <v>583</v>
@@ -11481,7 +11329,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B58" s="4">
         <v>712</v>
@@ -11492,7 +11340,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B59" s="4">
         <v>1187</v>
@@ -11503,7 +11351,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B60" s="4">
         <v>1143</v>
@@ -11514,7 +11362,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B61" s="4">
         <v>1092</v>
@@ -11525,7 +11373,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B62" s="4">
         <v>718</v>
@@ -11536,13 +11384,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B63" s="4">
         <v>1139</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -11550,13 +11398,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B64" s="4">
         <v>688</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -11564,7 +11412,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B65" s="4">
         <v>576</v>
@@ -11575,7 +11423,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B66" s="4">
         <v>935</v>
@@ -11586,7 +11434,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B67" s="4">
         <v>322</v>
@@ -11600,7 +11448,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B68" s="4">
         <v>377</v>
@@ -11611,7 +11459,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B69" s="4">
         <v>416</v>
@@ -11622,7 +11470,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B70" s="4">
         <v>494</v>
@@ -11633,7 +11481,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B71" s="4">
         <v>1049</v>
@@ -11644,13 +11492,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B72" s="4">
         <v>813</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -11658,7 +11506,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B73" s="4">
         <v>1278</v>
@@ -11669,7 +11517,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B74" s="4">
         <v>1335</v>
@@ -11680,7 +11528,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B75" s="4">
         <v>410</v>
@@ -11691,7 +11539,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B76" s="4">
         <v>312</v>
@@ -11705,7 +11553,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B77" s="4">
         <v>664</v>
@@ -11716,7 +11564,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B78" s="4">
         <v>1024</v>
@@ -11727,7 +11575,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B79" s="4">
         <v>1039</v>
@@ -11738,7 +11586,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B80" s="4">
         <v>1140</v>
@@ -11749,7 +11597,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B81" s="4">
         <v>1130</v>
@@ -11760,13 +11608,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B82" s="4">
         <v>741</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
@@ -11774,13 +11622,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B83" s="4">
         <v>546</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -11788,13 +11636,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B84" s="4">
         <v>943</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -11802,7 +11650,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B85" s="4">
         <v>980</v>
@@ -11813,7 +11661,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B86" s="4">
         <v>996</v>
@@ -11824,7 +11672,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B87" s="4">
         <v>1125</v>
@@ -11844,7 +11692,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11880,18 +11728,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="4">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>363</v>
+      <c r="C2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -11899,13 +11747,13 @@
         <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -11913,13 +11761,13 @@
         <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -11927,10 +11775,10 @@
         <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -11938,10 +11786,10 @@
         <v>311</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -11949,13 +11797,13 @@
         <v>329</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11963,13 +11811,13 @@
         <v>378</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -11977,13 +11825,13 @@
         <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -11991,10 +11839,10 @@
         <v>240</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -12002,13 +11850,13 @@
         <v>370</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -12016,13 +11864,13 @@
         <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -12030,21 +11878,27 @@
         <v>296</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8">
         <v>361</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
+      <c r="C14" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -12052,16 +11906,13 @@
         <v>317</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>367</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -12069,10 +11920,13 @@
         <v>302</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -12080,24 +11934,24 @@
         <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
+      <c r="C18" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSY\Desktop\编程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F2D54-E4F2-4874-B2DA-8C0F046E82CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97985696-F2CD-48F1-9661-3F8BAD5AF92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="0" windowWidth="19010" windowHeight="10200" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="703">
   <si>
     <t>Remove Element</t>
   </si>
@@ -1892,12 +1892,6 @@
     <t>2 dimensional input, 2 states</t>
   </si>
   <si>
-    <t>2 dimensional input, depends on some sub problems</t>
-  </si>
-  <si>
-    <t>3 dimensional input</t>
-  </si>
-  <si>
     <t>multiple states</t>
   </si>
   <si>
@@ -1907,9 +1901,6 @@
     <t>Dice Roll Simulation</t>
   </si>
   <si>
-    <t>depend on uncertain sub-problems</t>
-  </si>
-  <si>
     <t>mem recursion</t>
   </si>
   <si>
@@ -1932,9 +1923,6 @@
   </si>
   <si>
     <t>target sum</t>
-  </si>
-  <si>
-    <t>partition, depend on all subproblems</t>
   </si>
   <si>
     <t>Largest Sum of Averages</t>
@@ -2041,9 +2029,6 @@
     <t>change</t>
   </si>
   <si>
-    <t>重要,与987的区别在于314. If two nodes are in the same row and column, the order should be from left to right.987. If two nodes have the same position, then the value of the node that is reported first is the value that is smaller.</t>
-  </si>
-  <si>
     <t>string版本，次数至少</t>
   </si>
   <si>
@@ -2066,13 +2051,133 @@
   </si>
   <si>
     <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>Minimum Moves to Reach Target with Rotations</t>
+  </si>
+  <si>
+    <t>2 dimensional input, depends on all problems</t>
+  </si>
+  <si>
+    <t>Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t>Delete and Earn</t>
+  </si>
+  <si>
+    <t>Domino and Tromino Tiling</t>
+  </si>
+  <si>
+    <t>Minimum Swaps To Make Sequences Increasing</t>
+  </si>
+  <si>
+    <t>Count Vowels Permutation</t>
+  </si>
+  <si>
+    <t>Toss Strange Coins</t>
+  </si>
+  <si>
+    <t>Greatest Sum Divisible by Three  </t>
+  </si>
+  <si>
+    <t>Number of Ways to Stay in the Same Place After Some Steps  </t>
+  </si>
+  <si>
+    <t>Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Longest String Chain </t>
+  </si>
+  <si>
+    <t>Partition Array for Maximum Sum</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings </t>
+  </si>
+  <si>
+    <t>Minimum ASCII Delete Sum for Two Strings</t>
+  </si>
+  <si>
+    <t>Make Array Strictly Increasing</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence  </t>
+  </si>
+  <si>
+    <t>Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>Maximum Length of Repeated Subarray</t>
+  </si>
+  <si>
+    <t>Out of Boundary Paths</t>
+  </si>
+  <si>
+    <t>Knight Dialer</t>
+  </si>
+  <si>
+    <t>外层循环是总合</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Last Stone Weight II</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning III</t>
+  </si>
+  <si>
+    <t>Minimum Difficulty of a Job Schedule</t>
+  </si>
+  <si>
+    <t>Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>Strange Printer</t>
+  </si>
+  <si>
+    <t>Video Stitching</t>
+  </si>
+  <si>
+    <t>Minimum Score Triangulation of Polygon</t>
+  </si>
+  <si>
+    <t>Stone Game II</t>
+  </si>
+  <si>
+    <t>Minimum Cost Tree From Leaf Values</t>
+  </si>
+  <si>
+    <t>Bus Routes</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Shortest Path with Alternating Colors</t>
+  </si>
+  <si>
+    <t>Minimum Moves to Move a Box to Their Target Location</t>
+  </si>
+  <si>
+    <t>重要,与987的区别：314打破平局的规则是从左到右；987的规则是节点的值</t>
+  </si>
+  <si>
+    <t>depend on constant subproblems</t>
+  </si>
+  <si>
+    <t>divide and conquer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2088,19 +2193,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2110,6 +2209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,7 +2231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2146,11 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2159,6 +2260,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2442,7 +2548,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2600,7 +2706,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B9" s="2">
         <v>277</v>
@@ -2627,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
@@ -2663,7 +2769,7 @@
       <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -2695,7 +2801,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B14" s="2">
         <v>134</v>
@@ -2712,7 +2818,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B15" s="2">
         <v>118</v>
@@ -2729,7 +2835,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B16" s="2">
         <v>119</v>
@@ -2746,7 +2852,7 @@
     </row>
     <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B17" s="2">
         <v>169</v>
@@ -2766,7 +2872,7 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B18" s="8">
         <v>229</v>
@@ -2786,7 +2892,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B19" s="2">
         <v>274</v>
@@ -2806,7 +2912,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B20" s="2">
         <v>275</v>
@@ -2826,7 +2932,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B21" s="2">
         <v>217</v>
@@ -2846,7 +2952,7 @@
     </row>
     <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B22" s="2">
         <v>219</v>
@@ -2866,7 +2972,7 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B23" s="8">
         <v>220</v>
@@ -2874,8 +2980,8 @@
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>645</v>
+      <c r="D23" s="10" t="s">
+        <v>641</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
@@ -2886,7 +2992,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B24" s="2">
         <v>55</v>
@@ -2903,7 +3009,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B25" s="2">
         <v>45</v>
@@ -2920,7 +3026,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B26" s="2">
         <v>128</v>
@@ -2940,7 +3046,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B27" s="2">
         <v>325</v>
@@ -2960,7 +3066,7 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -2980,7 +3086,7 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B29" s="8">
         <v>295</v>
@@ -3109,7 +3215,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B36" s="2">
         <v>53</v>
@@ -3126,7 +3232,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B37" s="2">
         <v>334</v>
@@ -3143,7 +3249,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B38" s="2">
         <v>135</v>
@@ -3163,7 +3269,7 @@
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B39" s="8">
         <v>330</v>
@@ -3183,7 +3289,7 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B40" s="8">
         <v>321</v>
@@ -3200,7 +3306,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B41" s="8">
         <v>289</v>
@@ -3343,7 +3449,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3514,7 +3620,7 @@
         <v>62</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>90</v>
@@ -3554,7 +3660,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
@@ -3574,7 +3680,7 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E60" t="s">
         <v>90</v>
@@ -3594,7 +3700,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E61" t="s">
         <v>90</v>
@@ -3640,6 +3746,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3647,9 +3754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D255063B-BE9D-4B24-A95D-FEEF9F0D71FC}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3659,7 +3766,7 @@
     <col min="3" max="3" width="51.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="4"/>
-    <col min="6" max="6" width="8.7265625" style="10"/>
+    <col min="6" max="6" width="8.7265625" style="9"/>
     <col min="7" max="7" width="52.1796875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -3680,7 +3787,7 @@
       <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -3698,7 +3805,7 @@
         <v>292</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>2</v>
       </c>
       <c r="G2"/>
@@ -3713,7 +3820,7 @@
       <c r="C3" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3731,7 +3838,7 @@
         <v>573</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>2</v>
       </c>
       <c r="G4"/>
@@ -3747,7 +3854,7 @@
         <v>284</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>2</v>
       </c>
       <c r="G5"/>
@@ -3763,7 +3870,7 @@
         <v>287</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
       <c r="G6"/>
@@ -3779,7 +3886,7 @@
         <v>573</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>2</v>
       </c>
       <c r="G7"/>
@@ -3795,7 +3902,7 @@
         <v>284</v>
       </c>
       <c r="E8"/>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>2</v>
       </c>
       <c r="G8"/>
@@ -3808,13 +3915,13 @@
         <v>590</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D9" t="s">
         <v>287</v>
       </c>
       <c r="E9"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
       <c r="G9"/>
@@ -3829,11 +3936,11 @@
       <c r="C10" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>659</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -3844,13 +3951,13 @@
         <v>987</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11"/>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
       <c r="G11"/>
@@ -3863,11 +3970,11 @@
         <v>1302</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>2</v>
       </c>
       <c r="G12"/>
@@ -3884,7 +3991,7 @@
       </c>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>2</v>
       </c>
       <c r="G13"/>
@@ -3901,7 +4008,7 @@
       </c>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>2</v>
       </c>
       <c r="G14"/>
@@ -3918,7 +4025,7 @@
       </c>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>2</v>
       </c>
       <c r="G15"/>
@@ -3935,7 +4042,7 @@
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
       <c r="G16"/>
@@ -3952,7 +4059,7 @@
       </c>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>2</v>
       </c>
       <c r="G17"/>
@@ -3969,7 +4076,7 @@
       </c>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>2</v>
       </c>
       <c r="G18"/>
@@ -3988,7 +4095,7 @@
         <v>576</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>2</v>
       </c>
       <c r="G19"/>
@@ -4005,7 +4112,7 @@
       </c>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>2</v>
       </c>
       <c r="G20" t="s">
@@ -4020,11 +4127,11 @@
         <v>666</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21"/>
@@ -4041,7 +4148,7 @@
       </c>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>2</v>
       </c>
       <c r="G22"/>
@@ -4060,7 +4167,7 @@
         <v>576</v>
       </c>
       <c r="E23"/>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>2</v>
       </c>
       <c r="G23"/>
@@ -4079,7 +4186,7 @@
         <v>352</v>
       </c>
       <c r="E24"/>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>2</v>
       </c>
       <c r="G24"/>
@@ -4096,7 +4203,7 @@
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>2</v>
       </c>
       <c r="G25"/>
@@ -4113,7 +4220,7 @@
       </c>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>2</v>
       </c>
       <c r="G26"/>
@@ -4130,7 +4237,7 @@
       </c>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>2</v>
       </c>
       <c r="G27"/>
@@ -4147,7 +4254,7 @@
       </c>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>2</v>
       </c>
       <c r="G28" t="s">
@@ -4166,7 +4273,7 @@
       </c>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>2</v>
       </c>
       <c r="G29" t="s">
@@ -4185,7 +4292,7 @@
       </c>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>2</v>
       </c>
       <c r="G30" t="s">
@@ -4206,29 +4313,29 @@
         <v>284</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>2</v>
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="14">
         <v>236</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="14">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16">
+        <v>2</v>
+      </c>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -4242,7 +4349,7 @@
       </c>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>2</v>
       </c>
       <c r="G33"/>
@@ -4259,7 +4366,7 @@
       </c>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>2</v>
       </c>
       <c r="G34" t="s">
@@ -4278,7 +4385,7 @@
       </c>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>2</v>
       </c>
       <c r="G35"/>
@@ -4295,7 +4402,7 @@
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>2</v>
       </c>
       <c r="G36"/>
@@ -4312,7 +4419,7 @@
       </c>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>2</v>
       </c>
       <c r="G37"/>
@@ -4329,7 +4436,7 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="14">
+      <c r="F38" s="12">
         <v>2</v>
       </c>
       <c r="G38" s="7"/>
@@ -4346,7 +4453,7 @@
       </c>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>2</v>
       </c>
       <c r="G39"/>
@@ -4363,7 +4470,7 @@
       </c>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>2</v>
       </c>
       <c r="G40"/>
@@ -4382,7 +4489,7 @@
         <v>292</v>
       </c>
       <c r="E41"/>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>2</v>
       </c>
       <c r="G41" t="s">
@@ -4403,7 +4510,7 @@
         <v>292</v>
       </c>
       <c r="E42"/>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>2</v>
       </c>
       <c r="G42" t="s">
@@ -4424,7 +4531,7 @@
         <v>292</v>
       </c>
       <c r="E43"/>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>2</v>
       </c>
       <c r="G43"/>
@@ -4443,7 +4550,7 @@
         <v>292</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="14">
+      <c r="F44" s="12">
         <v>2</v>
       </c>
       <c r="G44" s="7"/>
@@ -4462,7 +4569,7 @@
         <v>292</v>
       </c>
       <c r="E45"/>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>2</v>
       </c>
       <c r="G45"/>
@@ -4481,7 +4588,7 @@
         <v>603</v>
       </c>
       <c r="E46"/>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>2</v>
       </c>
       <c r="G46"/>
@@ -4500,7 +4607,7 @@
         <v>603</v>
       </c>
       <c r="E47"/>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>2</v>
       </c>
       <c r="G47"/>
@@ -4519,7 +4626,7 @@
         <v>603</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="15">
+      <c r="F48" s="13">
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -4539,7 +4646,7 @@
       <c r="D49" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4556,7 +4663,7 @@
       <c r="D50" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4573,7 +4680,7 @@
       <c r="D51" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4590,7 +4697,7 @@
       <c r="D52" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4607,7 +4714,7 @@
       <c r="D53" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4624,7 +4731,7 @@
       <c r="D54" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4641,7 +4748,7 @@
       <c r="D55" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4655,7 +4762,7 @@
       <c r="C56" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4669,7 +4776,7 @@
       <c r="C57" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4683,7 +4790,7 @@
       <c r="C58" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4697,7 +4804,7 @@
       <c r="C59" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4714,13 +4821,13 @@
       <c r="D60" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B61" s="4">
         <v>156</v>
@@ -4731,13 +4838,13 @@
       <c r="E61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B62" s="4">
         <v>114</v>
@@ -4748,7 +4855,7 @@
       <c r="E62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4765,7 +4872,7 @@
       <c r="E63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4782,7 +4889,7 @@
       <c r="E64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4802,25 +4909,25 @@
       <c r="E65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="F65" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="14">
         <v>105</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="14">
-        <v>2</v>
+      <c r="F66" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -4836,27 +4943,27 @@
       <c r="E67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F67" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+      <c r="F67" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="14">
         <v>116</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F68" s="14">
-        <v>2</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="F68" s="16">
+        <v>3</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4870,30 +4977,30 @@
       <c r="C69" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F69" s="14">
-        <v>2</v>
+      <c r="F69" s="12">
+        <v>3</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="14">
         <v>96</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F70" s="14">
-        <v>2</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="F70" s="16">
+        <v>3</v>
+      </c>
+      <c r="G70" s="14" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4913,28 +5020,28 @@
       <c r="E71" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F71" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+      <c r="F71" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="14">
         <v>331</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="14">
-        <v>2</v>
+      <c r="F72" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -4947,7 +5054,7 @@
       <c r="C73" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4961,7 +5068,7 @@
       <c r="C74" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4978,7 +5085,7 @@
       <c r="D75" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4991,8 +5098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6F1640-E696-4485-A999-112D5A4284BE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5002,7 +5109,7 @@
     <col min="3" max="3" width="51" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="4"/>
-    <col min="6" max="6" width="8.7265625" style="10"/>
+    <col min="6" max="6" width="8.7265625" style="9"/>
     <col min="7" max="7" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -5023,7 +5130,7 @@
       <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -5040,7 +5147,7 @@
       <c r="C2" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5054,7 +5161,7 @@
       <c r="C3" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5068,7 +5175,7 @@
       <c r="C4" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5082,7 +5189,7 @@
       <c r="C5" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5096,7 +5203,7 @@
       <c r="C6" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5110,7 +5217,7 @@
       <c r="C7" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5124,7 +5231,7 @@
       <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5141,7 +5248,7 @@
       <c r="D9" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5155,7 +5262,7 @@
       <c r="C10" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5169,7 +5276,7 @@
       <c r="C11" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5183,7 +5290,7 @@
       <c r="C12" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5197,7 +5304,7 @@
       <c r="C13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5214,7 +5321,7 @@
       <c r="D14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5228,7 +5335,7 @@
       <c r="C15" t="s">
         <v>546</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5242,7 +5349,7 @@
       <c r="C16" t="s">
         <v>547</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5256,7 +5363,7 @@
       <c r="C17" t="s">
         <v>548</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5270,7 +5377,7 @@
       <c r="C18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5287,7 +5394,7 @@
       <c r="D19" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5301,7 +5408,7 @@
       <c r="C20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5318,7 +5425,7 @@
       <c r="E21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5332,7 +5439,7 @@
       <c r="C22" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5349,7 +5456,7 @@
       <c r="D23" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5363,7 +5470,7 @@
       <c r="C24" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5377,7 +5484,7 @@
       <c r="C25" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5391,7 +5498,7 @@
       <c r="C26" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>1</v>
       </c>
       <c r="G26" t="s">
@@ -5408,7 +5515,7 @@
       <c r="C27" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>1</v>
       </c>
       <c r="G27" t="s">
@@ -5425,7 +5532,7 @@
       <c r="C28" t="s">
         <v>256</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5439,7 +5546,7 @@
       <c r="C29" t="s">
         <v>257</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5453,7 +5560,7 @@
       <c r="C30" t="s">
         <v>322</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5470,7 +5577,7 @@
       <c r="D31" t="s">
         <v>550</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5484,7 +5591,7 @@
       <c r="C32" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5498,7 +5605,7 @@
       <c r="C33" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5512,7 +5619,7 @@
       <c r="C34" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5527,10 +5634,10 @@
         <v>347</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5547,7 +5654,7 @@
       <c r="D36" t="s">
         <v>551</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" t="s">
@@ -5567,7 +5674,7 @@
       <c r="D37" t="s">
         <v>552</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5581,7 +5688,7 @@
       <c r="C38" t="s">
         <v>553</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +5702,7 @@
       <c r="C39" t="s">
         <v>554</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5609,7 +5716,7 @@
       <c r="C40" t="s">
         <v>555</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5623,7 +5730,7 @@
       <c r="C41" t="s">
         <v>556</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5640,7 +5747,9 @@
       <c r="D42" t="s">
         <v>552</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -5652,7 +5761,9 @@
       <c r="D43" t="s">
         <v>558</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -5661,10 +5772,15 @@
       <c r="B44" s="4">
         <v>815</v>
       </c>
+      <c r="C44" t="s">
+        <v>696</v>
+      </c>
       <c r="D44" t="s">
         <v>558</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -5673,10 +5789,15 @@
       <c r="B45" s="4">
         <v>863</v>
       </c>
+      <c r="C45" t="s">
+        <v>697</v>
+      </c>
       <c r="D45" t="s">
         <v>558</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -5685,10 +5806,15 @@
       <c r="B46" s="4">
         <v>1129</v>
       </c>
+      <c r="C46" t="s">
+        <v>698</v>
+      </c>
       <c r="D46" t="s">
         <v>558</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -5697,10 +5823,15 @@
       <c r="B47" s="4">
         <v>1263</v>
       </c>
+      <c r="C47" t="s">
+        <v>699</v>
+      </c>
       <c r="D47" t="s">
         <v>558</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -5709,7 +5840,7 @@
       <c r="B48" s="4">
         <v>847</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -5718,7 +5849,7 @@
       <c r="B49" s="4">
         <v>864</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -5730,7 +5861,7 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5744,7 +5875,7 @@
       <c r="C51" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5761,7 +5892,7 @@
       <c r="D52" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5778,7 +5909,7 @@
       <c r="D53" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5792,7 +5923,7 @@
       <c r="C54" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5809,7 +5940,7 @@
       <c r="D55" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5823,7 +5954,7 @@
       <c r="C56" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5837,7 +5968,7 @@
       <c r="C57" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5851,7 +5982,7 @@
       <c r="C58" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -5868,7 +5999,7 @@
       <c r="C59" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5885,7 +6016,7 @@
       <c r="E60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5902,7 +6033,7 @@
       <c r="E61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -5925,7 +6056,7 @@
       <c r="E62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -5945,7 +6076,7 @@
       <c r="E63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5962,7 +6093,7 @@
       <c r="D64" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5979,7 +6110,7 @@
       <c r="D65" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5997,7 +6128,7 @@
         <v>277</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="10"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
@@ -6009,7 +6140,7 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6026,7 +6157,7 @@
       <c r="D68" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6040,7 +6171,7 @@
       <c r="C69" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6054,7 +6185,7 @@
       <c r="C70" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <v>1</v>
       </c>
       <c r="G70" t="s">
@@ -6074,7 +6205,7 @@
       <c r="D71" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6088,7 +6219,7 @@
       <c r="C72" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6102,7 +6233,7 @@
       <c r="C73" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>2</v>
       </c>
     </row>
@@ -6118,7 +6249,7 @@
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6129,7 +6260,7 @@
       <c r="B75" s="4">
         <v>839</v>
       </c>
-      <c r="F75" s="10"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
@@ -6138,7 +6269,7 @@
       <c r="B76" s="4">
         <v>952</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <v>1</v>
       </c>
       <c r="G76" t="s">
@@ -6152,7 +6283,7 @@
       <c r="B77" s="4">
         <v>959</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6163,7 +6294,7 @@
       <c r="B78" s="4">
         <v>990</v>
       </c>
-      <c r="F78" s="10"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
@@ -6172,7 +6303,7 @@
       <c r="B79" s="4">
         <v>721</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6183,7 +6314,7 @@
       <c r="B80" s="4">
         <v>737</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6197,7 +6328,7 @@
       <c r="D81" t="s">
         <v>567</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <v>1</v>
       </c>
       <c r="G81" t="s">
@@ -6214,7 +6345,7 @@
       <c r="D82" t="s">
         <v>567</v>
       </c>
-      <c r="F82" s="10"/>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
@@ -6226,7 +6357,7 @@
       <c r="D83" t="s">
         <v>567</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6243,7 +6374,7 @@
       <c r="D84" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6260,7 +6391,7 @@
       <c r="D85" t="s">
         <v>561</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6277,7 +6408,7 @@
       <c r="D86" t="s">
         <v>561</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <v>1</v>
       </c>
       <c r="G86" t="s">
@@ -6294,7 +6425,7 @@
       <c r="C87" t="s">
         <v>187</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6311,7 +6442,7 @@
       <c r="D88" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6328,7 +6459,7 @@
       <c r="D89" t="s">
         <v>561</v>
       </c>
-      <c r="F89" s="10"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="4">
@@ -6337,7 +6468,7 @@
       <c r="D90" t="s">
         <v>564</v>
       </c>
-      <c r="F90" s="10"/>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="4">
@@ -6346,7 +6477,7 @@
       <c r="D91" t="s">
         <v>564</v>
       </c>
-      <c r="F91" s="10"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -6355,7 +6486,7 @@
       <c r="B92" s="4">
         <v>200</v>
       </c>
-      <c r="F92" s="10"/>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -6364,7 +6495,7 @@
       <c r="B93" s="4">
         <v>547</v>
       </c>
-      <c r="F93" s="10"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
@@ -6373,7 +6504,7 @@
       <c r="B94" s="4">
         <v>695</v>
       </c>
-      <c r="F94" s="10"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
@@ -6382,7 +6513,7 @@
       <c r="B95" s="4">
         <v>733</v>
       </c>
-      <c r="F95" s="10"/>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
@@ -6391,7 +6522,7 @@
       <c r="B96" s="4">
         <v>827</v>
       </c>
-      <c r="F96" s="10"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -6400,7 +6531,7 @@
       <c r="B97" s="4">
         <v>1162</v>
       </c>
-      <c r="F97" s="10"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
@@ -6412,7 +6543,7 @@
       <c r="D98" t="s">
         <v>201</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
@@ -6424,7 +6555,7 @@
       <c r="D99" t="s">
         <v>201</v>
       </c>
-      <c r="F99" s="10"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -6433,7 +6564,7 @@
       <c r="B100" s="4">
         <v>785</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
@@ -6442,7 +6573,7 @@
       <c r="B101" s="4">
         <v>886</v>
       </c>
-      <c r="F101" s="10"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
@@ -6451,7 +6582,7 @@
       <c r="B102" s="4">
         <v>1042</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
@@ -6460,7 +6591,7 @@
       <c r="B103" s="4">
         <v>997</v>
       </c>
-      <c r="F103" s="10"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
@@ -6469,7 +6600,7 @@
       <c r="B104" s="4">
         <v>743</v>
       </c>
-      <c r="F104" s="10"/>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
@@ -6478,7 +6609,7 @@
       <c r="B105" s="4">
         <v>787</v>
       </c>
-      <c r="F105" s="10"/>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -6487,7 +6618,7 @@
       <c r="B106" s="4">
         <v>882</v>
       </c>
-      <c r="F106" s="10"/>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -6496,7 +6627,7 @@
       <c r="B107" s="4">
         <v>924</v>
       </c>
-      <c r="F107" s="10"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -6505,7 +6636,7 @@
       <c r="B108" s="4">
         <v>1334</v>
       </c>
-      <c r="F108" s="10"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -6514,7 +6645,7 @@
       <c r="B109" s="4">
         <v>1192</v>
       </c>
-      <c r="F109" s="10"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -6523,7 +6654,7 @@
       <c r="B110" s="4">
         <v>943</v>
       </c>
-      <c r="F110" s="10"/>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -6532,7 +6663,7 @@
       <c r="B111" s="4">
         <v>980</v>
       </c>
-      <c r="F111" s="10"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -6541,7 +6672,7 @@
       <c r="B112" s="4">
         <v>996</v>
       </c>
-      <c r="F112" s="10"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113"/>
@@ -6559,8 +6690,8 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7831,409 +7962,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924D4324-827E-4A85-AA8A-ED3E5827D1E2}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="9"/>
-    <col min="3" max="3" width="46" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="9"/>
-    <col min="7" max="7" width="27.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>526</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2">
         <v>35</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>526</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>704</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>526</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>981</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>527</v>
       </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>526</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>69</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>425</v>
       </c>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>526</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>374</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>526</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>278</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>528</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>33</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>528</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>81</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>528</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>153</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>528</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>154</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>528</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>162</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>528</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>852</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>531</v>
       </c>
-      <c r="F14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>532</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>875</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>533</v>
       </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>532</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>1011</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>536</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>537</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>74</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>378</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" t="s">
         <v>318</v>
       </c>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>537</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>668</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>540</v>
       </c>
-      <c r="F20" s="9">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>719</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" t="s">
         <v>541</v>
       </c>
-      <c r="F21" s="9">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>537</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>786</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" t="s">
         <v>542</v>
       </c>
-      <c r="F22" s="9">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>543</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>300</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="25" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>543</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>354</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
@@ -8247,8 +8375,8 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9151,9 +9279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E15704-C131-41B5-AABB-F56385D10233}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9190,7 +9318,7 @@
         <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9204,7 +9332,7 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>502</v>
@@ -9221,7 +9349,7 @@
         <v>29</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>502</v>
@@ -9238,7 +9366,7 @@
         <v>174</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>503</v>
@@ -9255,7 +9383,7 @@
         <v>504</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -9269,7 +9397,7 @@
         <v>505</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -9277,13 +9405,19 @@
         <v>195</v>
       </c>
       <c r="B7" s="4">
-        <v>167</v>
+        <v>977</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>511</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -9291,13 +9425,13 @@
         <v>195</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -9305,27 +9439,27 @@
         <v>195</v>
       </c>
       <c r="B9" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -9333,16 +9467,13 @@
         <v>507</v>
       </c>
       <c r="B11" s="4">
-        <v>925</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>470</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -9350,13 +9481,16 @@
         <v>507</v>
       </c>
       <c r="B12" s="4">
-        <v>986</v>
+        <v>925</v>
       </c>
       <c r="C12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -9364,19 +9498,13 @@
         <v>507</v>
       </c>
       <c r="B13" s="4">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
-      </c>
-      <c r="D13" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>512</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -9393,16 +9521,16 @@
         <v>86</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H14" t="s">
         <v>514</v>
       </c>
       <c r="I14" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9413,22 +9541,22 @@
         <v>862</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>518</v>
       </c>
       <c r="F15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>514</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9439,19 +9567,19 @@
         <v>930</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>514</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -9465,29 +9593,29 @@
         <v>169</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="14">
         <v>76</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>514</v>
       </c>
     </row>
@@ -9499,7 +9627,7 @@
         <v>904</v>
       </c>
       <c r="C19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D19" t="s">
         <v>352</v>
@@ -9511,7 +9639,7 @@
         <v>514</v>
       </c>
       <c r="I19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -9534,7 +9662,7 @@
         <v>514</v>
       </c>
       <c r="I20" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -9557,7 +9685,7 @@
         <v>514</v>
       </c>
       <c r="I21" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9574,13 +9702,13 @@
         <v>352</v>
       </c>
       <c r="F22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>514</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9593,14 +9721,17 @@
       <c r="C23" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="D23" s="7" t="s">
+        <v>702</v>
+      </c>
       <c r="F23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>514</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -9651,7 +9782,7 @@
         <v>168</v>
       </c>
       <c r="F26" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>519</v>
@@ -9668,7 +9799,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -10101,7 +10232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7C4B1F-F3AF-4A45-B191-9A6BF3C2BBD0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -10293,7 +10424,7 @@
       <c r="C12" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>350</v>
       </c>
       <c r="F12" s="8">
@@ -10407,7 +10538,7 @@
         <v>346</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -10477,7 +10608,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -10543,18 +10674,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E8CCDE-0517-416C-B5C3-056AD70EEDF4}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="4" bestFit="1" customWidth="1"/>
@@ -10607,7 +10738,7 @@
         <v>746</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -10621,7 +10752,7 @@
         <v>1137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -10649,7 +10780,7 @@
         <v>1218</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -10680,7 +10811,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -10767,38 +10898,41 @@
         <v>931</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="14">
         <v>1210</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="C15" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B16" s="14">
         <v>85</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>609</v>
       </c>
@@ -10809,880 +10943,938 @@
         <v>219</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>609</v>
       </c>
       <c r="B18" s="4">
         <v>304</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>609</v>
       </c>
       <c r="B19" s="4">
+        <v>363</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1277</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="4">
         <v>256</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B22" s="4">
         <v>265</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23" s="4">
+        <v>198</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B24" s="4">
+        <v>213</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" s="4">
+        <v>276</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B26" s="4">
+        <v>309</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B27" s="4">
+        <v>740</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B28" s="14">
+        <v>790</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B29" s="14">
+        <v>801</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="F29" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1220</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1230</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1262</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1269</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1223</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B35" s="8">
+        <v>91</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B37" s="4">
+        <v>300</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B38" s="14">
+        <v>673</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="F38" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1048</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B40" s="4">
+        <v>96</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1105</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B42" s="4">
+        <v>131</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B43" s="4">
+        <v>279</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B44" s="8">
+        <v>139</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B45" s="8">
+        <v>140</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B46" s="8">
+        <v>818</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B47" s="14">
         <v>97</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C47" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B22" s="4">
-        <v>221</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B23" s="4">
-        <v>85</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B24" s="4">
-        <v>363</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1277</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B26" s="4">
-        <v>198</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B27" s="4">
-        <v>213</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B28" s="4">
-        <v>276</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B29" s="4">
-        <v>309</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B30" s="4">
-        <v>740</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B31" s="4">
-        <v>790</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B32" s="4">
-        <v>801</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1220</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1230</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1262</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1269</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1223</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B38" s="4">
-        <v>279</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B39" s="4">
-        <v>139</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B40" s="4">
-        <v>91</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="B41" s="8">
-        <v>375</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F41" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B42" s="4">
-        <v>140</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B43" s="4">
-        <v>818</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B44" s="4">
-        <v>300</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B45" s="4">
-        <v>673</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1048</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B47" s="4">
-        <v>96</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>618</v>
+        <v>507</v>
       </c>
       <c r="B48" s="4">
-        <v>1105</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>619</v>
+        <v>216</v>
       </c>
       <c r="F48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B49" s="4">
-        <v>131</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B49" s="14">
+        <v>10</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="B50" s="4">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1043</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B51" s="8">
+        <v>115</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B52" s="4">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>216</v>
+        <v>583</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="F52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B53" s="4">
-        <v>10</v>
+        <v>712</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>226</v>
+        <v>677</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B54" s="4">
-        <v>44</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="8">
+        <v>1187</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B55" s="4">
-        <v>97</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>217</v>
+        <v>1143</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="4">
-        <v>115</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="8">
+        <v>1092</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B57" s="4">
-        <v>583</v>
+        <v>718</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>507</v>
+        <v>618</v>
       </c>
       <c r="B58" s="4">
-        <v>712</v>
+        <v>1139</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="F58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1187</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1143</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B59" s="14">
+        <v>688</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="F59" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B60" s="14">
+        <v>576</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="F60" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>507</v>
+        <v>618</v>
       </c>
       <c r="B61" s="4">
-        <v>1092</v>
+        <v>935</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>683</v>
       </c>
       <c r="F61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="B62" s="4">
-        <v>718</v>
+        <v>322</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="F62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B63" s="4">
-        <v>1139</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="8">
+        <v>377</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="8">
+        <v>3</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B64" s="14">
+        <v>416</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="F64" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B65" s="14">
+        <v>494</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="F65" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1049</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F66" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B67" s="8">
+        <v>375</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B68" s="14">
+        <v>813</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B64" s="4">
-        <v>688</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B65" s="4">
-        <v>576</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B66" s="4">
-        <v>935</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B67" s="4">
-        <v>322</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B68" s="4">
-        <v>377</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1</v>
+      <c r="F68" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="B69" s="4">
-        <v>416</v>
+        <v>1278</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B70" s="4">
-        <v>494</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B70" s="14">
+        <v>1335</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="F70" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="B71" s="4">
-        <v>1049</v>
+        <v>410</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B72" s="4">
-        <v>813</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="F72" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B72" s="14">
+        <v>312</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B73" s="4">
+        <v>664</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B74" s="14">
+        <v>1024</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="F74" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B75" s="8">
+        <v>1039</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F75" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B76" s="8">
+        <v>1140</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F76" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1130</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F77" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B78" s="8">
+        <v>741</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B79" s="8">
+        <v>546</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B73" s="4">
-        <v>1278</v>
-      </c>
-      <c r="F73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1335</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B75" s="4">
-        <v>410</v>
-      </c>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B76" s="4">
-        <v>312</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B77" s="4">
-        <v>664</v>
-      </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B78" s="4">
-        <v>1024</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B79" s="4">
-        <v>1039</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1140</v>
-      </c>
-      <c r="F80" s="4">
-        <v>0</v>
+      <c r="F79" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B80" s="8">
+        <v>943</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="F80" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B81" s="4">
-        <v>1130</v>
+        <v>980</v>
       </c>
       <c r="F81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B82" s="4">
-        <v>741</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>628</v>
+        <v>996</v>
       </c>
       <c r="F82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B83" s="4">
-        <v>546</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>629</v>
+        <v>1125</v>
       </c>
       <c r="F83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B84" s="4">
-        <v>943</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B85" s="4">
-        <v>980</v>
-      </c>
-      <c r="F85" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B86" s="4">
-        <v>996</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B87" s="4">
-        <v>1125</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSY\Desktop\编程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97985696-F2CD-48F1-9661-3F8BAD5AF92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3180D2F1-D010-4CFE-A8A2-27B7CB14728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,13 @@
     <sheet name="Matrix" sheetId="8" r:id="rId9"/>
     <sheet name="Tree" sheetId="6" r:id="rId10"/>
     <sheet name="Graph" sheetId="12" r:id="rId11"/>
-    <sheet name="Math" sheetId="15" r:id="rId12"/>
-    <sheet name="Design" sheetId="16" r:id="rId13"/>
+    <sheet name="Min-max" sheetId="20" r:id="rId12"/>
+    <sheet name="Math" sheetId="15" r:id="rId13"/>
+    <sheet name="Design" sheetId="16" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Min-max'!$A$1:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="736">
   <si>
     <t>Remove Element</t>
   </si>
@@ -1114,16 +1118,7 @@
     <t>HashMap</t>
   </si>
   <si>
-    <t>Memorization Recursion</t>
-  </si>
-  <si>
-    <t>Bidirectional BFS</t>
-  </si>
-  <si>
     <t>Math</t>
-  </si>
-  <si>
-    <t>Backtracking</t>
   </si>
   <si>
     <t>DP</t>
@@ -1298,12 +1293,6 @@
     <t>Range Sum Query - Mutable</t>
   </si>
   <si>
-    <t>BIT &amp; ST</t>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
@@ -1899,9 +1888,6 @@
   </si>
   <si>
     <t>Dice Roll Simulation</t>
-  </si>
-  <si>
-    <t>mem recursion</t>
   </si>
   <si>
     <t>depend on all subproblems</t>
@@ -2171,6 +2157,125 @@
   </si>
   <si>
     <t>divide and conquer</t>
+  </si>
+  <si>
+    <t>Cat and Mouse</t>
+  </si>
+  <si>
+    <t>Can I Win</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>Stone Game</t>
+  </si>
+  <si>
+    <t>Guess the Word</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>01背包</t>
+  </si>
+  <si>
+    <t>完全背包</t>
+  </si>
+  <si>
+    <t>Coin Change 2</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>可以用贪心减小时间复杂度</t>
+  </si>
+  <si>
+    <t>1. prefix sum
+2. mono queue</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>shortest path</t>
+  </si>
+  <si>
+    <t>Unique Paths III</t>
+  </si>
+  <si>
+    <t>纯dfs反倒快</t>
+  </si>
+  <si>
+    <t>bit map</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>dijkastra</t>
+  </si>
+  <si>
+    <t>Reachable Nodes In Subdivided Graph</t>
+  </si>
+  <si>
+    <t>Minimize Malware Spread</t>
+  </si>
+  <si>
+    <t>Find the City With the Smallest Number of Neighbors at a Threshold Distance</t>
+  </si>
+  <si>
+    <t>1.dijkastra
+2. bellman-ford</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>Possible Bipartition</t>
+  </si>
+  <si>
+    <t>Flower Planting With No Adjacent</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>Making a Large Island</t>
+  </si>
+  <si>
+    <t>As Far from Land as Possible</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>Smallest String with Swaps</t>
+  </si>
+  <si>
+    <t>Maximum Candies You Can Get from Boxes</t>
+  </si>
+  <si>
+    <t>Shortest Path Visiting All Nodes</t>
+  </si>
+  <si>
+    <t>Shortest Path to Get All Keys</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2227,11 +2332,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2265,6 +2379,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,8 +2665,8 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2599,7 +2716,7 @@
         <v>90</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2616,7 +2733,7 @@
         <v>90</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2633,7 +2750,7 @@
         <v>90</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2650,7 +2767,7 @@
         <v>90</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2667,12 +2784,12 @@
         <v>90</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B7" s="2">
         <v>244</v>
@@ -2701,12 +2818,12 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B9" s="2">
         <v>277</v>
@@ -2733,7 +2850,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
@@ -2781,7 +2898,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B13" s="2">
         <v>299</v>
@@ -2790,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -2801,7 +2918,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B14" s="2">
         <v>134</v>
@@ -2818,7 +2935,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B15" s="2">
         <v>118</v>
@@ -2835,7 +2952,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B16" s="2">
         <v>119</v>
@@ -2852,7 +2969,7 @@
     </row>
     <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B17" s="2">
         <v>169</v>
@@ -2872,7 +2989,7 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B18" s="8">
         <v>229</v>
@@ -2892,7 +3009,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B19" s="2">
         <v>274</v>
@@ -2912,7 +3029,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B20" s="2">
         <v>275</v>
@@ -2932,7 +3049,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B21" s="2">
         <v>217</v>
@@ -2952,7 +3069,7 @@
     </row>
     <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B22" s="2">
         <v>219</v>
@@ -2972,7 +3089,7 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B23" s="8">
         <v>220</v>
@@ -2981,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
@@ -2992,7 +3109,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B24" s="2">
         <v>55</v>
@@ -3009,7 +3126,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B25" s="2">
         <v>45</v>
@@ -3026,7 +3143,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B26" s="2">
         <v>128</v>
@@ -3046,7 +3163,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B27" s="2">
         <v>325</v>
@@ -3066,7 +3183,7 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -3086,7 +3203,7 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B29" s="8">
         <v>295</v>
@@ -3106,7 +3223,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B30" s="2">
         <v>121</v>
@@ -3123,7 +3240,7 @@
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B31" s="8">
         <v>122</v>
@@ -3143,7 +3260,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B32" s="2">
         <v>123</v>
@@ -3160,7 +3277,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B33" s="2">
         <v>188</v>
@@ -3180,7 +3297,7 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B34" s="8">
         <v>309</v>
@@ -3197,7 +3314,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B35" s="2">
         <v>152</v>
@@ -3213,132 +3330,135 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>646</v>
+        <v>354</v>
       </c>
       <c r="B36" s="2">
+        <v>376</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B37" s="2">
         <v>53</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>646</v>
-      </c>
-      <c r="B37" s="2">
-        <v>334</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B38" s="2">
+        <v>334</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>640</v>
+      </c>
+      <c r="B39" s="2">
         <v>135</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>101</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>89</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B39" s="8">
-        <v>330</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2</v>
+      <c r="F39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B40" s="8">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B41" s="8">
+        <v>321</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B42" s="8">
         <v>289</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>56</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
+      <c r="F42" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3346,19 +3466,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3366,53 +3483,53 @@
         <v>41</v>
       </c>
       <c r="B44" s="2">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>90</v>
       </c>
       <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="8">
-        <v>253</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="B45" s="2">
+        <v>252</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="2">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3420,10 +3537,13 @@
         <v>41</v>
       </c>
       <c r="B47" s="2">
-        <v>228</v>
+        <v>352</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
@@ -3437,56 +3557,53 @@
         <v>41</v>
       </c>
       <c r="B48" s="2">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
         <v>90</v>
       </c>
       <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>647</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
         <v>90</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>81</v>
+      <c r="A50" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>90</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3494,10 +3611,10 @@
         <v>81</v>
       </c>
       <c r="B51" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
@@ -3506,7 +3623,7 @@
         <v>90</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3514,53 +3631,53 @@
         <v>81</v>
       </c>
       <c r="B52" s="2">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>496</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
         <v>90</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="2">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B54" s="2">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
@@ -3574,39 +3691,42 @@
         <v>81</v>
       </c>
       <c r="B55" s="8">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>86</v>
+        <v>491</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F55" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="8">
-        <v>376</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="B56" s="2">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>554</v>
+      </c>
+      <c r="E56" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="7">
-        <v>2</v>
+      <c r="F56">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3620,13 +3740,13 @@
         <v>62</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3646,7 +3766,7 @@
         <v>90</v>
       </c>
       <c r="F58" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3660,13 +3780,13 @@
         <v>73</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3680,13 +3800,13 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E60" t="s">
         <v>90</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3700,48 +3820,48 @@
         <v>33</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E61" t="s">
         <v>90</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B62" s="2">
         <v>307</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D62" s="3"/>
       <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B63" s="8">
-        <v>315</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="2">
+        <v>283</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="7">
-        <v>2</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>525</v>
+      <c r="F63" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3755,8 +3875,8 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3796,7 +3916,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B2" s="4">
         <v>94</v>
@@ -3812,7 +3932,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B3" s="4">
         <v>102</v>
@@ -3826,7 +3946,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B4" s="4">
         <v>107</v>
@@ -3835,7 +3955,7 @@
         <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="9">
@@ -3845,7 +3965,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B5" s="4">
         <v>144</v>
@@ -3861,7 +3981,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B6" s="4">
         <v>145</v>
@@ -3877,13 +3997,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B7" s="4">
         <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="9">
@@ -3893,7 +4013,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B8" s="4">
         <v>589</v>
@@ -3909,13 +4029,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B9" s="4">
         <v>590</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D9" t="s">
         <v>287</v>
@@ -3928,7 +4048,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B10" s="4">
         <v>314</v>
@@ -3940,18 +4060,18 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B11" s="4">
         <v>987</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -3964,13 +4084,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B12" s="4">
         <v>1302</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -3981,7 +4101,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B13" s="4">
         <v>104</v>
@@ -3998,7 +4118,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B14" s="4">
         <v>110</v>
@@ -4015,7 +4135,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B15" s="4">
         <v>111</v>
@@ -4032,13 +4152,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B16" s="4">
         <v>965</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -4049,13 +4169,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B17" s="4">
         <v>872</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -4066,7 +4186,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B18" s="4">
         <v>112</v>
@@ -4083,7 +4203,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B19" s="4">
         <v>113</v>
@@ -4092,7 +4212,7 @@
         <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="9">
@@ -4102,13 +4222,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B20" s="4">
         <v>437</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -4116,18 +4236,18 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B21" s="4">
         <v>666</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -4138,7 +4258,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B22" s="4">
         <v>129</v>
@@ -4155,7 +4275,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B23" s="4">
         <v>257</v>
@@ -4164,7 +4284,7 @@
         <v>265</v>
       </c>
       <c r="D23" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="9">
@@ -4174,13 +4294,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B24" s="4">
         <v>508</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D24" t="s">
         <v>352</v>
@@ -4193,7 +4313,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -4210,7 +4330,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B26" s="4">
         <v>101</v>
@@ -4227,13 +4347,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B27" s="4">
         <v>572</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -4244,13 +4364,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B28" s="4">
         <v>814</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -4258,18 +4378,18 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B29" s="4">
         <v>669</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -4277,18 +4397,18 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B30" s="4">
         <v>1325</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -4296,12 +4416,12 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B31" s="4">
         <v>235</v>
@@ -4320,7 +4440,7 @@
     </row>
     <row r="32" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B32" s="14">
         <v>236</v>
@@ -4339,13 +4459,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B33" s="4">
         <v>297</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -4356,13 +4476,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B34" s="4">
         <v>449</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -4370,12 +4490,12 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B35" s="4">
         <v>124</v>
@@ -4392,13 +4512,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B36" s="4">
         <v>543</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -4409,13 +4529,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B37" s="4">
         <v>687</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -4426,13 +4546,13 @@
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B38" s="8">
         <v>968</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -4443,7 +4563,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B39" s="4">
         <v>337</v>
@@ -4460,13 +4580,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B40" s="4">
         <v>979</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -4493,7 +4613,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -4504,7 +4624,7 @@
         <v>530</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D42" t="s">
         <v>292</v>
@@ -4514,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -4563,7 +4683,7 @@
         <v>501</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D45" t="s">
         <v>292</v>
@@ -4582,10 +4702,10 @@
         <v>700</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D46" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="9">
@@ -4601,10 +4721,10 @@
         <v>701</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D47" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="9">
@@ -4620,17 +4740,17 @@
         <v>450</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="13">
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -4729,7 +4849,7 @@
         <v>296</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -4827,7 +4947,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B61" s="4">
         <v>156</v>
@@ -4844,7 +4964,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B62" s="4">
         <v>114</v>
@@ -4861,7 +4981,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B63" s="4">
         <v>255</v>
@@ -4878,7 +4998,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B64" s="4">
         <v>333</v>
@@ -4895,7 +5015,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B65" s="4">
         <v>222</v>
@@ -4915,7 +5035,7 @@
     </row>
     <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B66" s="14">
         <v>105</v>
@@ -4932,7 +5052,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B67" s="4">
         <v>106</v>
@@ -4949,7 +5069,7 @@
     </row>
     <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B68" s="14">
         <v>116</v>
@@ -4969,7 +5089,7 @@
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B69" s="8">
         <v>117</v>
@@ -4986,7 +5106,7 @@
     </row>
     <row r="70" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B70" s="14">
         <v>96</v>
@@ -4995,7 +5115,7 @@
         <v>309</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F70" s="16">
         <v>3</v>
@@ -5006,7 +5126,7 @@
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B71" s="8">
         <v>95</v>
@@ -5026,7 +5146,7 @@
     </row>
     <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B72" s="14">
         <v>331</v>
@@ -5035,7 +5155,7 @@
         <v>311</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>89</v>
@@ -5046,13 +5166,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B73" s="4">
         <v>208</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F73" s="9">
         <v>2</v>
@@ -5060,13 +5180,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" s="4">
         <v>211</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F74" s="9">
         <v>2</v>
@@ -5074,16 +5194,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B75" s="4">
         <v>212</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F75" s="9">
         <v>2</v>
@@ -5096,17 +5216,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6F1640-E696-4485-A999-112D5A4284BE}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="51" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="4"/>
     <col min="6" max="6" width="8.7265625" style="9"/>
@@ -5139,96 +5260,96 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B2" s="4">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>242</v>
       </c>
       <c r="F2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B3" s="4">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B4" s="4">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>232</v>
       </c>
       <c r="F4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B5" s="4">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F5" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B6" s="4">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>228</v>
       </c>
       <c r="F6" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B7" s="4">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>229</v>
       </c>
       <c r="F7" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B8" s="4">
         <v>216</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>233</v>
       </c>
       <c r="F8" s="9">
@@ -5237,7 +5358,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B9" s="4">
         <v>377</v>
@@ -5246,7 +5367,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
@@ -5254,7 +5375,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B10" s="4">
         <v>254</v>
@@ -5268,103 +5389,100 @@
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B11" s="4">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>236</v>
       </c>
       <c r="F11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B12" s="4">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>237</v>
       </c>
       <c r="F12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>545</v>
-      </c>
-      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" s="8">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B14" s="4">
-        <v>60</v>
+        <v>784</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>239</v>
+        <v>541</v>
       </c>
       <c r="F14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B15" s="4">
-        <v>784</v>
-      </c>
-      <c r="C15" t="s">
-        <v>546</v>
+        <v>996</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>543</v>
       </c>
       <c r="F15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>545</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B16" s="4">
-        <v>943</v>
-      </c>
-      <c r="C16" t="s">
-        <v>547</v>
+        <v>291</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="F16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>545</v>
-      </c>
-      <c r="B17" s="4">
-        <v>996</v>
-      </c>
-      <c r="C17" t="s">
-        <v>548</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="8">
+        <v>320</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -5372,13 +5490,16 @@
         <v>249</v>
       </c>
       <c r="B18" s="4">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -5386,89 +5507,86 @@
         <v>249</v>
       </c>
       <c r="B19" s="4">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="8">
+        <v>351</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="4">
-        <v>320</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="B21" s="4">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>249</v>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>201</v>
       </c>
       <c r="B22" s="4">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>249</v>
+      <c r="G22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>201</v>
       </c>
       <c r="B23" s="4">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>249</v>
+      <c r="G23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>201</v>
       </c>
       <c r="B24" s="4">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
@@ -5479,10 +5597,10 @@
         <v>201</v>
       </c>
       <c r="B25" s="4">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>185</v>
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
@@ -5493,16 +5611,13 @@
         <v>201</v>
       </c>
       <c r="B26" s="4">
-        <v>301</v>
-      </c>
-      <c r="C26" t="s">
-        <v>188</v>
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5510,27 +5625,30 @@
         <v>201</v>
       </c>
       <c r="B27" s="4">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>328</v>
+        <v>212</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>545</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>201</v>
       </c>
       <c r="B28" s="4">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>256</v>
+        <v>200</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" t="s">
+        <v>560</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -5541,10 +5659,13 @@
         <v>201</v>
       </c>
       <c r="B29" s="4">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>257</v>
+        <v>695</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="D29" t="s">
+        <v>560</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -5555,10 +5676,13 @@
         <v>201</v>
       </c>
       <c r="B30" s="4">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>322</v>
+        <v>733</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D30" t="s">
+        <v>560</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -5569,13 +5693,13 @@
         <v>201</v>
       </c>
       <c r="B31" s="4">
-        <v>212</v>
-      </c>
-      <c r="C31" t="s">
-        <v>375</v>
+        <v>827</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="D31" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -5586,10 +5710,10 @@
         <v>201</v>
       </c>
       <c r="B32" s="4">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -5600,45 +5724,48 @@
         <v>201</v>
       </c>
       <c r="B33" s="4">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B34" s="4">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>252</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="4">
-        <v>332</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="9">
-        <v>1</v>
+      <c r="B35" s="8">
+        <v>943</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F35" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5648,17 +5775,17 @@
       <c r="B36" s="4">
         <v>127</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5668,11 +5795,11 @@
       <c r="B37" s="4">
         <v>126</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -5685,8 +5812,8 @@
       <c r="B38" s="4">
         <v>752</v>
       </c>
-      <c r="C38" t="s">
-        <v>553</v>
+      <c r="C38" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -5699,8 +5826,8 @@
       <c r="B39" s="4">
         <v>818</v>
       </c>
-      <c r="C39" t="s">
-        <v>554</v>
+      <c r="C39" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -5713,8 +5840,8 @@
       <c r="B40" s="4">
         <v>542</v>
       </c>
-      <c r="C40" t="s">
-        <v>555</v>
+      <c r="C40" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="F40" s="9">
         <v>1</v>
@@ -5727,8 +5854,8 @@
       <c r="B41" s="4">
         <v>675</v>
       </c>
-      <c r="C41" t="s">
-        <v>556</v>
+      <c r="C41" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F41" s="9">
         <v>1</v>
@@ -5741,11 +5868,11 @@
       <c r="B42" s="4">
         <v>934</v>
       </c>
-      <c r="C42" t="s">
-        <v>557</v>
+      <c r="C42" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="D42" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F42" s="9">
         <v>1</v>
@@ -5758,8 +5885,11 @@
       <c r="B43" s="4">
         <v>433</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="D43" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
@@ -5772,11 +5902,11 @@
       <c r="B44" s="4">
         <v>815</v>
       </c>
-      <c r="C44" t="s">
-        <v>696</v>
+      <c r="C44" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="D44" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F44" s="9">
         <v>1</v>
@@ -5789,11 +5919,11 @@
       <c r="B45" s="4">
         <v>863</v>
       </c>
-      <c r="C45" t="s">
-        <v>697</v>
+      <c r="C45" s="4" t="s">
+        <v>691</v>
       </c>
       <c r="D45" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F45" s="9">
         <v>1</v>
@@ -5806,11 +5936,11 @@
       <c r="B46" s="4">
         <v>1129</v>
       </c>
-      <c r="C46" t="s">
-        <v>698</v>
+      <c r="C46" s="4" t="s">
+        <v>692</v>
       </c>
       <c r="D46" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F46" s="9">
         <v>1</v>
@@ -5823,11 +5953,11 @@
       <c r="B47" s="4">
         <v>1263</v>
       </c>
-      <c r="C47" t="s">
-        <v>699</v>
+      <c r="C47" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="D47" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
@@ -5840,7 +5970,12 @@
       <c r="B48" s="4">
         <v>847</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="C48" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -5849,34 +5984,41 @@
       <c r="B49" s="4">
         <v>864</v>
       </c>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>277</v>
       </c>
       <c r="B50" s="4">
+        <v>1162</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="4">
         <v>1298</v>
       </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B51" s="4">
-        <v>339</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
       <c r="F51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -5884,13 +6026,10 @@
         <v>259</v>
       </c>
       <c r="B52" s="4">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5901,27 +6040,27 @@
         <v>259</v>
       </c>
       <c r="B53" s="4">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B54" s="4">
-        <v>126</v>
+        <v>841</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>258</v>
+        <v>730</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5929,247 +6068,251 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>259</v>
+        <v>454</v>
       </c>
       <c r="B55" s="4">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>259</v>
+        <v>454</v>
       </c>
       <c r="B56" s="4">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="F56" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B57" s="4">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>365</v>
       </c>
       <c r="F57" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B58" s="4">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B59" s="4">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F59" s="9">
         <v>0</v>
       </c>
+      <c r="G59" s="4" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B60" s="4">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F60" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B61" s="4">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B62" s="4">
-        <v>391</v>
+        <v>207</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="F62" s="9">
         <v>1</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B63" s="4">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>89</v>
+        <v>360</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="F63" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B64" s="4">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B65" s="4">
-        <v>210</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
       <c r="F65" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B66" s="4">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="9"/>
+        <v>464</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B67" s="4">
-        <v>802</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
+        <v>323</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="F67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B68" s="4">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>469</v>
+        <v>376</v>
       </c>
       <c r="F68" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B69" s="4">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -6177,185 +6320,200 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B70" s="4">
+        <v>737</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="4">
+        <v>684</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B70" s="4">
-        <v>305</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B71" s="4">
-        <v>399</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="F71" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B72" s="4">
+        <v>547</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F71" s="9">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B73" s="4">
+        <v>839</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="F73" s="9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B72" s="4">
-        <v>737</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F72" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B73" s="4">
-        <v>684</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F73" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B74" s="4">
-        <v>547</v>
+        <v>924</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+        <v>719</v>
+      </c>
       <c r="F74" s="9">
         <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B75" s="4">
-        <v>839</v>
-      </c>
-      <c r="F75" s="9"/>
+        <v>952</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B76" s="4">
-        <v>952</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="C76" s="4"/>
       <c r="F76" s="9">
         <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B77" s="4">
-        <v>959</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="C77" s="4"/>
       <c r="F77" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B78" s="4">
-        <v>990</v>
-      </c>
-      <c r="F78" s="9"/>
+        <v>721</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="F78" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>461</v>
+      <c r="A79" t="s">
+        <v>456</v>
       </c>
       <c r="B79" s="4">
-        <v>721</v>
+        <v>1202</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="F79" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B80" s="4">
         <v>737</v>
       </c>
+      <c r="C80" s="4"/>
       <c r="F80" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B81" s="4">
         <v>684</v>
       </c>
+      <c r="C81" s="4"/>
       <c r="D81" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F81" s="9">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B82" s="4">
         <v>685</v>
       </c>
+      <c r="C82" s="4"/>
       <c r="D82" t="s">
-        <v>567</v>
-      </c>
-      <c r="F82" s="9"/>
+        <v>562</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B83" s="4">
         <v>1319</v>
       </c>
+      <c r="C83" s="4"/>
       <c r="D83" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F83" s="9">
         <v>1</v>
@@ -6363,13 +6521,13 @@
     </row>
     <row r="84" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B84" s="4">
         <v>698</v>
       </c>
-      <c r="C84" t="s">
-        <v>560</v>
+      <c r="C84" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="D84" t="s">
         <v>201</v>
@@ -6380,16 +6538,16 @@
     </row>
     <row r="85" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B85" s="4">
         <v>93</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D85" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F85" s="9">
         <v>1</v>
@@ -6397,32 +6555,32 @@
     </row>
     <row r="86" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B86" s="4">
         <v>131</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F86" s="9">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="87" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B87" s="4">
         <v>241</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>187</v>
       </c>
       <c r="F87" s="9">
@@ -6431,12 +6589,12 @@
     </row>
     <row r="88" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B88" s="4">
         <v>282</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D88" t="s">
@@ -6448,250 +6606,332 @@
     </row>
     <row r="89" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B89" s="4">
         <v>842</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D89" t="s">
+        <v>556</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>563</v>
       </c>
-      <c r="D89" t="s">
-        <v>561</v>
-      </c>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="4">
-        <v>133</v>
+        <v>785</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="D90" t="s">
-        <v>564</v>
-      </c>
-      <c r="F90" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="F90" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>563</v>
+      </c>
       <c r="B91" s="4">
-        <v>138</v>
-      </c>
-      <c r="D91" t="s">
-        <v>564</v>
-      </c>
-      <c r="F91" s="9"/>
+        <v>886</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B92" s="4">
-        <v>200</v>
-      </c>
-      <c r="F92" s="9"/>
+        <v>1042</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B93" s="4">
-        <v>547</v>
-      </c>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>997</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>565</v>
       </c>
       <c r="B94" s="4">
-        <v>695</v>
-      </c>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>565</v>
       </c>
       <c r="B95" s="4">
-        <v>733</v>
-      </c>
-      <c r="F95" s="9"/>
+        <v>787</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>565</v>
       </c>
       <c r="B96" s="4">
-        <v>827</v>
-      </c>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>882</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D96" t="s">
+        <v>717</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>565</v>
       </c>
       <c r="B97" s="4">
-        <v>1162</v>
-      </c>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1334</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B98" s="4">
-        <v>841</v>
+        <v>1192</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="D98" t="s">
         <v>201</v>
       </c>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B99" s="4">
-        <v>1202</v>
+        <v>980</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>711</v>
       </c>
       <c r="D99" t="s">
-        <v>201</v>
-      </c>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>568</v>
-      </c>
-      <c r="B100" s="4">
-        <v>785</v>
-      </c>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>568</v>
-      </c>
-      <c r="B101" s="4">
-        <v>886</v>
-      </c>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>568</v>
-      </c>
-      <c r="B102" s="4">
-        <v>1042</v>
-      </c>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>569</v>
-      </c>
-      <c r="B103" s="4">
-        <v>997</v>
-      </c>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>570</v>
-      </c>
-      <c r="B104" s="4">
-        <v>743</v>
-      </c>
-      <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>570</v>
-      </c>
-      <c r="B105" s="4">
-        <v>787</v>
-      </c>
-      <c r="F105" s="9"/>
-    </row>
-    <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>570</v>
-      </c>
-      <c r="B106" s="4">
-        <v>882</v>
-      </c>
-      <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>570</v>
-      </c>
-      <c r="B107" s="4">
-        <v>924</v>
-      </c>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>570</v>
-      </c>
-      <c r="B108" s="4">
-        <v>1334</v>
-      </c>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>571</v>
-      </c>
-      <c r="B109" s="4">
-        <v>1192</v>
-      </c>
-      <c r="F109" s="9"/>
-    </row>
-    <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>572</v>
-      </c>
-      <c r="B110" s="4">
-        <v>943</v>
-      </c>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>572</v>
-      </c>
-      <c r="B111" s="4">
-        <v>980</v>
-      </c>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>572</v>
-      </c>
-      <c r="B112" s="4">
-        <v>996</v>
-      </c>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
+        <v>713</v>
+      </c>
+      <c r="F99" s="9">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100"/>
+      <c r="D100"/>
+      <c r="E100"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B29F5-3378-4283-A98A-26BB18F86255}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7">
+        <v>486</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>843</v>
+      </c>
+      <c r="C6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>877</v>
+      </c>
+      <c r="C7" t="s">
+        <v>700</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>913</v>
+      </c>
+      <c r="C8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G8" xr:uid="{821E5B66-11B3-45FB-BDDE-8F2CD05FBEFA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+      <sortCondition ref="B1:B8"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B26FD51-B88D-4F2C-8FA7-E7FA8CFE63D1}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6729,13 +6969,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B2" s="4">
         <v>384</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -6743,13 +6983,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B3" s="4">
         <v>398</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -6757,13 +6997,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B4" s="4">
         <v>382</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -6771,13 +7011,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B5" s="4">
         <v>380</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -6785,13 +7025,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B6" s="4">
         <v>381</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -6805,13 +7045,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -6822,7 +7062,7 @@
         <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -6836,7 +7076,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -6850,13 +7090,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -6867,13 +7107,13 @@
         <v>258</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -6884,7 +7124,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -6898,7 +7138,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -6912,7 +7152,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -6926,10 +7166,10 @@
         <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -6943,7 +7183,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
@@ -6960,7 +7200,7 @@
         <v>367</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -6977,16 +7217,16 @@
         <v>365</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -6997,7 +7237,7 @@
         <v>204</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -7005,13 +7245,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -7019,13 +7259,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B21" s="4">
         <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -7033,13 +7273,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B22" s="4">
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -7047,13 +7287,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B23" s="4">
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>89</v>
@@ -7064,13 +7304,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B24" s="4">
         <v>259</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>89</v>
@@ -7081,13 +7321,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B25" s="4">
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -7095,16 +7335,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B26" s="4">
         <v>231</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>89</v>
@@ -7115,13 +7355,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B27" s="4">
         <v>326</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>89</v>
@@ -7132,13 +7372,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B28" s="4">
         <v>342</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>89</v>
@@ -7149,13 +7389,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B29" s="4">
         <v>372</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>89</v>
@@ -7169,13 +7409,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B30" s="4">
         <v>233</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>89</v>
@@ -7189,13 +7429,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B31" s="4">
         <v>319</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>89</v>
@@ -7206,13 +7446,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B32" s="4">
         <v>292</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>89</v>
@@ -7223,13 +7463,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B33" s="4">
         <v>202</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>89</v>
@@ -7240,13 +7480,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B34" s="4">
         <v>400</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>89</v>
@@ -7257,13 +7497,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B35" s="4">
         <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>89</v>
@@ -7274,13 +7514,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B36" s="4">
         <v>264</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>89</v>
@@ -7291,13 +7531,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B37" s="4">
         <v>306</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>89</v>
@@ -7308,13 +7548,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B38" s="4">
         <v>172</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>89</v>
@@ -7325,16 +7565,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B39" s="4">
         <v>343</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>89</v>
@@ -7345,13 +7585,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B40" s="4">
         <v>396</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>89</v>
@@ -7360,18 +7600,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B41" s="4">
         <v>390</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>89</v>
@@ -7382,13 +7622,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B42" s="4">
         <v>386</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>201</v>
@@ -7400,18 +7640,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B43" s="4">
         <v>357</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>89</v>
@@ -7422,13 +7662,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B44" s="4">
         <v>360</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>89</v>
@@ -7439,13 +7679,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B45" s="4">
         <v>397</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>89</v>
@@ -7456,13 +7696,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B46" s="4">
         <v>368</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>89</v>
@@ -7473,241 +7713,238 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B47" s="4">
         <v>389</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B48" s="4">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B49" s="4">
+        <v>393</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B50" s="4">
+        <v>201</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B49" s="4">
-        <v>318</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B50" s="4">
-        <v>393</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B51" s="4">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>384</v>
+        <v>478</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B52" s="4">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B53" s="4">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B54" s="4">
+        <v>268</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="B54" s="4">
-        <v>89</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B55" s="4">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B56" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B57" s="4">
+        <v>136</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B57" s="4">
-        <v>190</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B58" s="4">
         <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B59" s="4">
         <v>260</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7715,12 +7952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087DC069-5827-4F11-A993-9CCCC1FE8762}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7759,7 +7996,7 @@
         <v>359</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -7770,7 +8007,7 @@
         <v>346</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>167</v>
@@ -7784,7 +8021,7 @@
         <v>362</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -7795,7 +8032,7 @@
         <v>281</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -7806,7 +8043,7 @@
         <v>284</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -7817,7 +8054,7 @@
         <v>251</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -7828,7 +8065,7 @@
         <v>288</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -7839,7 +8076,7 @@
         <v>170</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>352</v>
@@ -7853,7 +8090,7 @@
         <v>348</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -7864,7 +8101,7 @@
         <v>379</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -7875,7 +8112,7 @@
         <v>353</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -7886,7 +8123,7 @@
         <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -7897,60 +8134,10 @@
         <v>355</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
-        <v>303</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
-        <v>304</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
-        <v>307</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="4">
-        <v>308</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +8150,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8000,7 +8187,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -8009,12 +8196,12 @@
         <v>65</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8023,12 +8210,12 @@
         <v>72</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B4">
         <v>704</v>
@@ -8037,40 +8224,43 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B5">
         <v>981</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B6">
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B7">
         <v>374</v>
@@ -8082,12 +8272,12 @@
         <v>90</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B8">
         <v>278</v>
@@ -8099,29 +8289,29 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>528</v>
-      </c>
-      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="7">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>529</v>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B10">
         <v>81</v>
@@ -8130,15 +8320,15 @@
         <v>67</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B11">
         <v>153</v>
@@ -8147,12 +8337,12 @@
         <v>68</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B12">
         <v>154</v>
@@ -8161,12 +8351,12 @@
         <v>69</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B13">
         <v>162</v>
@@ -8175,60 +8365,60 @@
         <v>70</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B14">
         <v>852</v>
       </c>
       <c r="C14" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B15">
         <v>875</v>
       </c>
       <c r="C15" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B16">
         <v>1011</v>
       </c>
       <c r="C16" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -8242,7 +8432,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -8251,15 +8441,15 @@
         <v>319</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B19">
         <v>378</v>
@@ -8268,66 +8458,66 @@
         <v>318</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B20">
         <v>668</v>
       </c>
       <c r="C20" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B21" s="7">
+        <v>719</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B22" s="7">
+        <v>786</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B21">
-        <v>719</v>
-      </c>
-      <c r="C21" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>537</v>
-      </c>
-      <c r="B22">
-        <v>786</v>
-      </c>
-      <c r="C22" t="s">
-        <v>542</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>539</v>
+      <c r="F22" s="7">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -8342,12 +8532,12 @@
         <v>90</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B24">
         <v>354</v>
@@ -8362,7 +8552,7 @@
         <v>90</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8372,11 +8562,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C8C802-25D3-4DC7-84C4-C670C0E10C6D}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8422,10 +8612,10 @@
         <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -8439,10 +8629,10 @@
         <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -8459,7 +8649,7 @@
         <v>196</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -8476,7 +8666,7 @@
         <v>196</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -8490,10 +8680,10 @@
         <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -8602,7 +8792,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B14" s="4">
         <v>205</v>
@@ -8619,7 +8809,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B15" s="4">
         <v>290</v>
@@ -8636,7 +8826,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B16" s="4">
         <v>242</v>
@@ -8653,7 +8843,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B17" s="4">
         <v>49</v>
@@ -8670,7 +8860,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B18" s="4">
         <v>249</v>
@@ -8687,7 +8877,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B19" s="4">
         <v>387</v>
@@ -8704,7 +8894,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B20" s="4">
         <v>383</v>
@@ -8721,7 +8911,7 @@
     </row>
     <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B21" s="4">
         <v>316</v>
@@ -8781,49 +8971,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>491</v>
-      </c>
-      <c r="B25" s="4">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>197</v>
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="14">
+        <v>60</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B26" s="4">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="F26">
         <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B27" s="4">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -8831,16 +9024,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B28" s="4">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" t="s">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -8848,13 +9038,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B29" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
         <v>352</v>
@@ -8865,47 +9055,47 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B30" s="4">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
         <v>352</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B31" s="4">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>352</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B32" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
         <v>352</v>
@@ -8916,36 +9106,39 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B33" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
         <v>352</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="4">
+        <v>248</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E34" t="s">
         <v>89</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8">
-        <v>157</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -8953,27 +9146,27 @@
         <v>36</v>
       </c>
       <c r="B35" s="8">
+        <v>157</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="8">
         <v>158</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -8981,30 +9174,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>392</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -9012,13 +9202,13 @@
         <v>193</v>
       </c>
       <c r="B39" s="4">
-        <v>115</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>191</v>
+        <v>392</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -9026,19 +9216,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -9046,16 +9233,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B41" s="4">
-        <v>125</v>
-      </c>
-      <c r="C41" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -9066,10 +9256,13 @@
         <v>183</v>
       </c>
       <c r="B42" s="4">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -9080,13 +9273,10 @@
         <v>183</v>
       </c>
       <c r="B43" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -9097,13 +9287,13 @@
         <v>183</v>
       </c>
       <c r="B44" s="4">
-        <v>5</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -9114,43 +9304,46 @@
         <v>183</v>
       </c>
       <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>354</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="4">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>177</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B47" s="8">
         <v>214</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="4">
-        <v>336</v>
-      </c>
-      <c r="C47" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47">
+      <c r="F47" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9159,16 +9352,13 @@
         <v>183</v>
       </c>
       <c r="B48" s="4">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -9176,10 +9366,13 @@
         <v>183</v>
       </c>
       <c r="B49" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="D49" t="s">
+        <v>201</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -9187,13 +9380,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B50" s="4">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -9204,72 +9397,86 @@
         <v>189</v>
       </c>
       <c r="B51" s="4">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="4">
         <v>22</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>185</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>201</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B53" s="8">
         <v>32</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F52" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="F53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B54" s="4">
         <v>241</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>200</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B55" s="8">
         <v>301</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{940F5078-5D1D-4A85-82DB-7CF818B1B61B}"/>
+    <hyperlink ref="C39" r:id="rId1" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{940F5078-5D1D-4A85-82DB-7CF818B1B61B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9277,11 +9484,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E15704-C131-41B5-AABB-F56385D10233}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9318,7 +9525,7 @@
         <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9335,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -9352,7 +9559,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -9369,7 +9576,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9380,7 +9587,7 @@
         <v>917</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -9394,7 +9601,7 @@
         <v>881</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -9408,16 +9615,16 @@
         <v>977</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -9428,7 +9635,7 @@
         <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -9442,7 +9649,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -9456,7 +9663,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -9464,13 +9671,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B11" s="4">
         <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -9478,30 +9685,30 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B12" s="4">
         <v>925</v>
       </c>
       <c r="C12" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B13" s="4">
         <v>986</v>
       </c>
       <c r="C13" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -9509,7 +9716,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B14" s="4">
         <v>209</v>
@@ -9524,67 +9731,67 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="H14" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B15" s="8">
         <v>862</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>518</v>
+        <v>620</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>708</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B16" s="8">
         <v>930</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -9596,55 +9803,55 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="B18" s="14">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B18" s="2">
         <v>76</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="F18" s="15">
-        <v>3</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>514</v>
+      <c r="C18" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B19" s="4">
         <v>904</v>
       </c>
       <c r="C19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D19" t="s">
         <v>352</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I19" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B20" s="4">
         <v>159</v>
@@ -9656,18 +9863,18 @@
         <v>352</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I20" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B21" s="4">
         <v>340</v>
@@ -9679,24 +9886,24 @@
         <v>352</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I21" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B22" s="8">
         <v>992</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>352</v>
@@ -9705,15 +9912,15 @@
         <v>3</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B23" s="8">
         <v>395</v>
@@ -9722,70 +9929,87 @@
         <v>171</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F23" s="7">
         <v>3</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B24" s="4">
-        <v>239</v>
+        <v>508</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1004</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>518</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+        <v>709</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>508</v>
+      </c>
+      <c r="B25" s="4">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>513</v>
       </c>
-      <c r="B25" s="4">
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>508</v>
+      </c>
+      <c r="B26" s="4">
         <v>480</v>
       </c>
-      <c r="C25" t="s">
-        <v>520</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="C26" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="8">
         <v>30</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>519</v>
+      <c r="F27" s="7">
+        <v>3</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -9799,8 +10023,8 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9837,7 +10061,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B2" s="4">
         <v>206</v>
@@ -9851,7 +10075,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B3" s="4">
         <v>141</v>
@@ -9868,7 +10092,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B4" s="4">
         <v>328</v>
@@ -9882,7 +10106,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B5" s="4">
         <v>92</v>
@@ -9891,12 +10115,12 @@
         <v>112</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B6" s="4">
         <v>237</v>
@@ -9910,7 +10134,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B7" s="4">
         <v>19</v>
@@ -9924,7 +10148,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B8" s="4">
         <v>83</v>
@@ -9938,7 +10162,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B9" s="4">
         <v>82</v>
@@ -9952,7 +10176,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B10" s="4">
         <v>203</v>
@@ -9966,7 +10190,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B11" s="4">
         <v>369</v>
@@ -9980,7 +10204,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -9994,7 +10218,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B13" s="4">
         <v>160</v>
@@ -10011,7 +10235,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B14" s="4">
         <v>21</v>
@@ -10028,13 +10252,13 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B15" s="4">
         <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -10042,7 +10266,7 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B16" s="8">
         <v>142</v>
@@ -10059,7 +10283,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B17" s="4">
         <v>24</v>
@@ -10073,7 +10297,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B18" s="4">
         <v>234</v>
@@ -10090,7 +10314,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B19" s="4">
         <v>143</v>
@@ -10099,7 +10323,7 @@
         <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -10107,7 +10331,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B20" s="4">
         <v>25</v>
@@ -10121,7 +10345,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B21" s="4">
         <v>61</v>
@@ -10135,7 +10359,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
@@ -10149,7 +10373,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B23" s="4">
         <v>23</v>
@@ -10158,7 +10382,7 @@
         <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -10166,7 +10390,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B24" s="4">
         <v>148</v>
@@ -10180,7 +10404,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B25" s="4">
         <v>147</v>
@@ -10194,7 +10418,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B26" s="4">
         <v>86</v>
@@ -10208,13 +10432,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B27" s="4">
         <v>707</v>
       </c>
       <c r="C27" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -10232,8 +10456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7C4B1F-F3AF-4A45-B191-9A6BF3C2BBD0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10279,7 +10503,7 @@
         <v>330</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -10293,24 +10517,24 @@
         <v>331</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="2">
         <v>225</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
+      <c r="D4" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -10324,7 +10548,7 @@
         <v>333</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -10338,7 +10562,7 @@
         <v>334</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -10352,7 +10576,7 @@
         <v>335</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -10366,38 +10590,38 @@
         <v>336</v>
       </c>
       <c r="F8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="2">
         <v>224</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="2">
         <v>227</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="8">
-        <v>2</v>
+      <c r="F10" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -10411,7 +10635,7 @@
         <v>339</v>
       </c>
       <c r="F11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -10428,7 +10652,7 @@
         <v>350</v>
       </c>
       <c r="F12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -10442,7 +10666,7 @@
         <v>348</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -10456,7 +10680,7 @@
         <v>342</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -10473,7 +10697,7 @@
         <v>352</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -10490,24 +10714,24 @@
         <v>84</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <v>313</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
+      <c r="F17" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -10524,7 +10748,7 @@
         <v>89</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -10538,7 +10762,7 @@
         <v>346</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -10608,7 +10832,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -10624,13 +10848,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B5">
         <v>912</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -10638,16 +10862,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -10655,13 +10879,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B7">
         <v>493</v>
       </c>
       <c r="C7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -10674,11 +10898,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E8CCDE-0517-416C-B5C3-056AD70EEDF4}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10718,7 +10942,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B2" s="4">
         <v>70</v>
@@ -10727,71 +10951,71 @@
         <v>204</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B3" s="4">
         <v>746</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B4" s="4">
         <v>1137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B5" s="4">
         <v>303</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B6" s="4">
         <v>1218</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B7" s="4">
         <v>53</v>
@@ -10800,26 +11024,26 @@
         <v>51</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B8" s="4">
         <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B9" s="4">
         <v>62</v>
@@ -10828,12 +11052,12 @@
         <v>205</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B10" s="4">
         <v>63</v>
@@ -10842,12 +11066,12 @@
         <v>206</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B11" s="4">
         <v>64</v>
@@ -10856,12 +11080,12 @@
         <v>215</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B12" s="4">
         <v>120</v>
@@ -10873,12 +11097,12 @@
         <v>89</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B13" s="4">
         <v>174</v>
@@ -10887,113 +11111,113 @@
         <v>218</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B14" s="4">
         <v>931</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1210</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="F15" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="B16" s="14">
-        <v>85</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B15" s="4">
+        <v>221</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B16" s="4">
+        <v>304</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B17" s="4">
+        <v>363</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>219</v>
+      <c r="D17" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="F17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B18" s="4">
-        <v>304</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B19" s="4">
-        <v>363</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B18" s="2">
         <v>1277</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="C18" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1210</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B20" s="2">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B21" s="4">
         <v>256</v>
@@ -11002,12 +11226,12 @@
         <v>213</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B22" s="4">
         <v>265</v>
@@ -11016,12 +11240,15 @@
         <v>214</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B23" s="4">
         <v>198</v>
@@ -11030,12 +11257,12 @@
         <v>222</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B24" s="4">
         <v>213</v>
@@ -11044,12 +11271,12 @@
         <v>223</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B25" s="4">
         <v>276</v>
@@ -11058,12 +11285,12 @@
         <v>224</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B26" s="4">
         <v>309</v>
@@ -11072,32 +11299,32 @@
         <v>27</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B27" s="4">
         <v>740</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B28" s="14">
         <v>790</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F28" s="14">
         <v>3</v>
@@ -11105,13 +11332,13 @@
     </row>
     <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B29" s="14">
         <v>801</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F29" s="14">
         <v>3</v>
@@ -11119,30 +11346,30 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B30" s="4">
         <v>1220</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B31" s="4">
         <v>1230</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -11150,44 +11377,44 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B32" s="4">
         <v>1262</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F32" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B33" s="4">
         <v>1269</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B34" s="8">
         <v>1223</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F34" s="8">
         <v>2</v>
@@ -11195,7 +11422,7 @@
     </row>
     <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B35" s="8">
         <v>91</v>
@@ -11209,21 +11436,21 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B36" s="4">
         <v>1043</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B37" s="4">
         <v>300</v>
@@ -11232,40 +11459,40 @@
         <v>76</v>
       </c>
       <c r="F37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="B38" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B38" s="2">
         <v>673</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="F38" s="14">
+      <c r="C38" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F38" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B39" s="4">
         <v>1048</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B40" s="4">
         <v>96</v>
@@ -11274,26 +11501,26 @@
         <v>309</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B41" s="4">
         <v>1105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B42" s="4">
         <v>131</v>
@@ -11302,12 +11529,12 @@
         <v>180</v>
       </c>
       <c r="F42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B43" s="4">
         <v>279</v>
@@ -11319,508 +11546,526 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B44" s="8">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="2">
         <v>139</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F44" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="B45" s="8">
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B45" s="2">
         <v>140</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F45" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="B46" s="8">
-        <v>818</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B47" s="14">
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B46" s="14">
         <v>97</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B48" s="4">
+      <c r="F46" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" s="4">
         <v>72</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B49" s="14">
+      <c r="F47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" s="2">
         <v>10</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B50" s="4">
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B49" s="4">
         <v>44</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" s="8">
         <v>115</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F50" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B51" s="4">
+        <v>583</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F51" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B52" s="4">
-        <v>583</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>676</v>
+        <v>712</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>671</v>
       </c>
       <c r="F52" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B53" s="4">
-        <v>712</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B53" s="8">
         <v>1187</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="F54" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B55" s="4">
+      <c r="C53" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B54" s="4">
         <v>1143</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="C54" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B55" s="8">
         <v>1092</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="F56" s="8">
-        <v>2</v>
+      <c r="C55" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B56" s="4">
+        <v>718</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>507</v>
+        <v>612</v>
       </c>
       <c r="B57" s="4">
-        <v>718</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>681</v>
+        <v>1139</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="F57" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1139</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="B59" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B58" s="14">
         <v>688</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="F59" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="B60" s="14">
+      <c r="C58" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="F58" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B59" s="2">
         <v>576</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="F60" s="14">
+      <c r="C59" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B60" s="4">
+        <v>935</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F60" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B61" s="4">
-        <v>935</v>
+        <v>322</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>683</v>
+        <v>212</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="F61" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B62" s="4">
-        <v>322</v>
+        <v>518</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>212</v>
+        <v>705</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="F62" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B63" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B63" s="17">
         <v>377</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F63" s="8">
-        <v>3</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B64" s="14">
+      <c r="D63" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F63" s="17">
+        <v>3</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B64" s="2">
         <v>416</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="F64" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B65" s="14">
-        <v>494</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F65" s="14">
-        <v>3</v>
+      <c r="C64" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B65" s="2">
+        <v>474</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B66" s="14">
+        <v>494</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F66" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B67" s="14">
         <v>1049</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F67" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B68" s="2">
+        <v>375</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B69" s="2">
+        <v>813</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1278</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F70" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B71" s="14">
+        <v>1335</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="F71" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B72" s="4">
+        <v>410</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B73" s="14">
+        <v>312</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B74" s="4">
+        <v>664</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1039</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="F66" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="B67" s="8">
-        <v>375</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B68" s="14">
-        <v>813</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="F68" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1278</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="F76" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1140</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B70" s="14">
-        <v>1335</v>
-      </c>
-      <c r="C70" s="14" t="s">
+      <c r="F77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1130</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F70" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B71" s="4">
-        <v>410</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B72" s="14">
-        <v>312</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F72" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B73" s="4">
-        <v>664</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="F73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B74" s="14">
-        <v>1024</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="F74" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="B75" s="8">
-        <v>1039</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="F75" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="B76" s="8">
-        <v>1140</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F76" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="B77" s="8">
-        <v>1130</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F77" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B78" s="8">
-        <v>741</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="F78" s="8">
-        <v>2</v>
+      <c r="F78" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B79" s="8">
-        <v>546</v>
+        <v>741</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F79" s="8">
         <v>2</v>
@@ -11828,35 +12073,38 @@
     </row>
     <row r="80" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B80" s="8">
+        <v>546</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F80" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B81" s="8">
         <v>943</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="F80" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B81" s="4">
-        <v>980</v>
-      </c>
-      <c r="F81" s="4">
-        <v>0</v>
+      <c r="C81" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="F81" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B82" s="4">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -11864,12 +12112,23 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B83" s="4">
+        <v>996</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B84" s="4">
         <v>1125</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11931,7 +12190,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -11945,7 +12204,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -11959,7 +12218,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -11992,7 +12251,7 @@
         <v>317</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -12006,7 +12265,7 @@
         <v>318</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -12045,7 +12304,7 @@
         <v>321</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -12059,7 +12318,7 @@
         <v>322</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -12073,7 +12332,7 @@
         <v>323</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -12087,7 +12346,7 @@
         <v>324</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
@@ -12140,7 +12399,7 @@
         <v>328</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F18" s="8">
         <v>2</v>
